--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -421,22 +421,22 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9901840127146418</v>
+        <v>0.9901840127146424</v>
       </c>
       <c r="D2">
-        <v>1.008925553019903</v>
+        <v>1.008925553019904</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9920295866414415</v>
+        <v>0.992029586641442</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03998002205416</v>
+        <v>1.039980022054161</v>
       </c>
       <c r="J2">
         <v>1.01266233528763</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.003601090279901</v>
+        <v>1.003601090279902</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9990265781683578</v>
+        <v>0.9990265781683593</v>
       </c>
       <c r="D3">
-        <v>1.015733300368919</v>
+        <v>1.01573330036892</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.00136357932143</v>
+        <v>1.001363579321431</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043225068391842</v>
+        <v>1.043225068391843</v>
       </c>
       <c r="J3">
-        <v>1.019543814865652</v>
+        <v>1.019543814865654</v>
       </c>
       <c r="K3">
-        <v>1.026168751970227</v>
+        <v>1.026168751970228</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.011979042577139</v>
+        <v>1.01197904257714</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004531984304932</v>
+        <v>1.00453198430493</v>
       </c>
       <c r="D4">
-        <v>1.019972838027908</v>
+        <v>1.019972838027906</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.007182477203326</v>
+        <v>1.007182477203324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04522812195908</v>
+        <v>1.045228121959079</v>
       </c>
       <c r="J4">
-        <v>1.023820467648113</v>
+        <v>1.023820467648111</v>
       </c>
       <c r="K4">
-        <v>1.029836039628263</v>
+        <v>1.029836039628262</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.0171949821369</v>
+        <v>1.017194982136898</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,10 +538,10 @@
         <v>1.006798231388726</v>
       </c>
       <c r="D5">
-        <v>1.021718107749477</v>
+        <v>1.021718107749478</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
         <v>1.009579571443185</v>
@@ -550,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046048431939206</v>
+        <v>1.046048431939207</v>
       </c>
       <c r="J5">
-        <v>1.025578981731129</v>
+        <v>1.02557898173113</v>
       </c>
       <c r="K5">
-        <v>1.031343083115413</v>
+        <v>1.031343083115414</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.019342002674749</v>
+        <v>1.01934200267475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007176012676666</v>
+        <v>1.007176012676668</v>
       </c>
       <c r="D6">
-        <v>1.022009044976883</v>
+        <v>1.022009044976885</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.009979270690599</v>
+        <v>1.0099792706906</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046184926094318</v>
+        <v>1.046184926094319</v>
       </c>
       <c r="J6">
-        <v>1.02587200918067</v>
+        <v>1.025872009180671</v>
       </c>
       <c r="K6">
-        <v>1.031594152915641</v>
+        <v>1.031594152915642</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.019699904226386</v>
+        <v>1.019699904226387</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00456245108219</v>
+        <v>1.004562451082189</v>
       </c>
       <c r="D7">
-        <v>1.019996300692208</v>
+        <v>1.019996300692207</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.007214695916375</v>
+        <v>1.007214695916374</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045239166825154</v>
+        <v>1.045239166825153</v>
       </c>
       <c r="J7">
-        <v>1.023844116334442</v>
+        <v>1.023844116334441</v>
       </c>
       <c r="K7">
         <v>1.029856310145871</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.017223846375074</v>
+        <v>1.017223846375073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,28 +649,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9932194647031197</v>
+        <v>0.9932194647031204</v>
       </c>
       <c r="D8">
         <v>1.011262192820267</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9952321332051015</v>
+        <v>0.9952321332051016</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041097604069979</v>
+        <v>1.041097604069978</v>
       </c>
       <c r="J8">
-        <v>1.015026201034346</v>
+        <v>1.015026201034347</v>
       </c>
       <c r="K8">
-        <v>1.022291741308115</v>
+        <v>1.022291741308116</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9713904372731381</v>
+        <v>0.971390437273137</v>
       </c>
       <c r="D9">
-        <v>0.9944697339956814</v>
+        <v>0.9944697339956801</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9722348545928531</v>
+        <v>0.9722348545928515</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032987728036887</v>
+        <v>1.032987728036886</v>
       </c>
       <c r="J9">
-        <v>0.9979955598721817</v>
+        <v>0.9979955598721808</v>
       </c>
       <c r="K9">
-        <v>1.007653177703776</v>
+        <v>1.007653177703775</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9857950592967417</v>
+        <v>0.9857950592967404</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9552940092055164</v>
+        <v>0.9552940092055153</v>
       </c>
       <c r="D10">
-        <v>0.9821106036696825</v>
+        <v>0.9821106036696816</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9553205067538554</v>
+        <v>0.9553205067538543</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026917416676268</v>
       </c>
       <c r="J10">
-        <v>0.9854009362121408</v>
+        <v>0.9854009362121396</v>
       </c>
       <c r="K10">
-        <v>0.9968105475641592</v>
+        <v>0.9968105475641583</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9705462069586401</v>
+        <v>0.9705462069586391</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9478714472129908</v>
+        <v>0.947871447212992</v>
       </c>
       <c r="D11">
-        <v>0.9764204183267906</v>
+        <v>0.9764204183267923</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9475312615879878</v>
+        <v>0.9475312615879896</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.02409826686786</v>
       </c>
       <c r="J11">
-        <v>0.979585979536032</v>
+        <v>0.9795859795360334</v>
       </c>
       <c r="K11">
-        <v>0.9918011451777239</v>
+        <v>0.9918011451777254</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9635154698517857</v>
+        <v>0.9635154698517872</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9450372117238787</v>
+        <v>0.9450372117238799</v>
       </c>
       <c r="D12">
-        <v>0.9742493752139083</v>
+        <v>0.9742493752139094</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9445585961524566</v>
+        <v>0.9445585961524579</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023018959663678</v>
       </c>
       <c r="J12">
-        <v>0.9773646670739803</v>
+        <v>0.9773646670739815</v>
       </c>
       <c r="K12">
-        <v>0.9898871232062499</v>
+        <v>0.9898871232062511</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9608310526029507</v>
+        <v>0.9608310526029518</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.945648823682875</v>
+        <v>0.9456488236828748</v>
       </c>
       <c r="D13">
-        <v>0.9747177911509185</v>
+        <v>0.9747177911509184</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9452000089653374</v>
+        <v>0.9452000089653375</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.023251993354036</v>
       </c>
       <c r="J13">
-        <v>0.9778440527012237</v>
+        <v>0.9778440527012239</v>
       </c>
       <c r="K13">
-        <v>0.9903002100590454</v>
+        <v>0.9903002100590457</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
         <v>0.9614103244669477</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9476388020079776</v>
+        <v>0.9476388020079747</v>
       </c>
       <c r="D14">
-        <v>0.9762421739714204</v>
+        <v>0.9762421739714181</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9472872214245061</v>
+        <v>0.9472872214245035</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024009729555608</v>
+        <v>1.024009729555606</v>
       </c>
       <c r="J14">
-        <v>0.9794036632115719</v>
+        <v>0.9794036632115695</v>
       </c>
       <c r="K14">
-        <v>0.9916440582778704</v>
+        <v>0.9916440582778681</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9632951178490928</v>
+        <v>0.9632951178490904</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488543635756036</v>
+        <v>0.9488543635756019</v>
       </c>
       <c r="D15">
-        <v>0.9771735644301137</v>
+        <v>0.9771735644301122</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9485623853903303</v>
+        <v>0.9485623853903287</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024472219277081</v>
+        <v>1.02447221927708</v>
       </c>
       <c r="J15">
-        <v>0.9803562219464604</v>
+        <v>0.980356221946459</v>
       </c>
       <c r="K15">
-        <v>0.9924647823637857</v>
+        <v>0.992464782363784</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9644464565416844</v>
+        <v>0.9644464565416826</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.95577634091098</v>
+        <v>0.9557763409109827</v>
       </c>
       <c r="D16">
-        <v>0.9824805748308423</v>
+        <v>0.9824805748308446</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9558268822486262</v>
+        <v>0.9558268822486288</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027100213197314</v>
+        <v>1.027100213197315</v>
       </c>
       <c r="J16">
-        <v>0.9857786674919756</v>
+        <v>0.9857786674919782</v>
       </c>
       <c r="K16">
-        <v>0.9971358882643243</v>
+        <v>0.9971358882643268</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9710031017989623</v>
+        <v>0.9710031017989648</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599911866655405</v>
+        <v>0.9599911866655426</v>
       </c>
       <c r="D17">
-        <v>0.985714600052794</v>
+        <v>0.985714600052796</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9602530063074899</v>
+        <v>0.9602530063074919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028695365929141</v>
+        <v>1.028695365929142</v>
       </c>
       <c r="J17">
-        <v>0.9890786777035308</v>
+        <v>0.9890786777035326</v>
       </c>
       <c r="K17">
-        <v>0.9999778277401187</v>
+        <v>0.9999778277401206</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9749957834072462</v>
+        <v>0.974995783407248</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624066583707036</v>
+        <v>0.9624066583707006</v>
       </c>
       <c r="D18">
-        <v>0.9875687869079616</v>
+        <v>0.9875687869079585</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9627905319700953</v>
+        <v>0.9627905319700922</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029607663770873</v>
+        <v>1.029607663770871</v>
       </c>
       <c r="J18">
-        <v>0.990969191145047</v>
+        <v>0.990969191145044</v>
       </c>
       <c r="K18">
-        <v>1.001605605764854</v>
+        <v>1.001605605764851</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9772840229873671</v>
+        <v>0.9772840229873642</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9632232321934751</v>
+        <v>0.9632232321934753</v>
       </c>
       <c r="D19">
-        <v>0.9881957410282474</v>
+        <v>0.9881957410282475</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>0.9636485321227849</v>
+        <v>0.963648532122785</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9595434793962684</v>
+        <v>0.9595434793962686</v>
       </c>
       <c r="D20">
-        <v>0.9853709903712816</v>
+        <v>0.985370990371282</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9597827553256463</v>
+        <v>0.9597827553256467</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028526119382876</v>
       </c>
       <c r="J20">
-        <v>0.9887282152809523</v>
+        <v>0.9887282152809527</v>
       </c>
       <c r="K20">
-        <v>0.9996760449958695</v>
+        <v>0.9996760449958696</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9745716653042222</v>
+        <v>0.9745716653042226</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9470550157700465</v>
+        <v>0.9470550157700466</v>
       </c>
       <c r="D21">
-        <v>0.975794926608139</v>
+        <v>0.9757949266081393</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9466748667950716</v>
+        <v>0.946674866795072</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023787514200988</v>
       </c>
       <c r="J21">
-        <v>0.9789461550298482</v>
+        <v>0.9789461550298486</v>
       </c>
       <c r="K21">
-        <v>0.9912498546584494</v>
+        <v>0.9912498546584497</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9627421829244246</v>
+        <v>0.962742182924425</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9387505970328989</v>
+        <v>0.9387505970328979</v>
       </c>
       <c r="D22">
-        <v>0.969437380581236</v>
+        <v>0.969437380581235</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9379678743537746</v>
+        <v>0.9379678743537737</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020619880835467</v>
+        <v>1.020619880835466</v>
       </c>
       <c r="J22">
-        <v>0.972436056743173</v>
+        <v>0.9724360567431719</v>
       </c>
       <c r="K22">
-        <v>0.9856396149026346</v>
+        <v>0.9856396149026337</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9548771973024675</v>
+        <v>0.9548771973024665</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431993722207455</v>
+        <v>0.943199372220748</v>
       </c>
       <c r="D23">
-        <v>0.9728421066919403</v>
+        <v>0.9728421066919425</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>0.9426314407010828</v>
+        <v>0.9426314407010856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022318310874463</v>
+        <v>1.022318310874464</v>
       </c>
       <c r="J23">
-        <v>0.97592403353946</v>
+        <v>0.9759240335394624</v>
       </c>
       <c r="K23">
-        <v>0.9886456714472486</v>
+        <v>0.9886456714472508</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9590904268889404</v>
+        <v>0.9590904268889432</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.959745911175359</v>
+        <v>0.9597459111753612</v>
       </c>
       <c r="D24">
-        <v>0.9855263517108253</v>
+        <v>0.9855263517108275</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9599953772626039</v>
+        <v>0.9599953772626064</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028602650373577</v>
+        <v>1.028602650373579</v>
       </c>
       <c r="J24">
-        <v>0.9888866797215919</v>
+        <v>0.9888866797215942</v>
       </c>
       <c r="K24">
-        <v>0.999812499510255</v>
+        <v>0.9998124995102572</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>0.9747634309250781</v>
+        <v>0.9747634309250806</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9772804770275276</v>
+        <v>0.9772804770275277</v>
       </c>
       <c r="D25">
-        <v>0.9989978156460397</v>
+        <v>0.99899781564604</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717734</v>
       </c>
       <c r="F25">
-        <v>0.9784328576179125</v>
+        <v>0.9784328576179128</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035191545428238</v>
+        <v>1.035191545428239</v>
       </c>
       <c r="J25">
         <v>1.00259740409646</v>
       </c>
       <c r="K25">
-        <v>1.01161170918291</v>
+        <v>1.011611709182911</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9598754494005612</v>
       </c>
       <c r="M25">
-        <v>0.9913754641387664</v>
+        <v>0.9913754641387668</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -421,22 +421,22 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9901840127146424</v>
+        <v>0.9901840127146418</v>
       </c>
       <c r="D2">
-        <v>1.008925553019904</v>
+        <v>1.008925553019903</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.992029586641442</v>
+        <v>0.9920295866414415</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039980022054161</v>
+        <v>1.03998002205416</v>
       </c>
       <c r="J2">
         <v>1.01266233528763</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.003601090279902</v>
+        <v>1.003601090279901</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9990265781683593</v>
+        <v>0.9990265781683578</v>
       </c>
       <c r="D3">
-        <v>1.01573330036892</v>
+        <v>1.015733300368919</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.001363579321431</v>
+        <v>1.00136357932143</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043225068391843</v>
+        <v>1.043225068391842</v>
       </c>
       <c r="J3">
-        <v>1.019543814865654</v>
+        <v>1.019543814865652</v>
       </c>
       <c r="K3">
-        <v>1.026168751970228</v>
+        <v>1.026168751970227</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.01197904257714</v>
+        <v>1.011979042577139</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00453198430493</v>
+        <v>1.004531984304932</v>
       </c>
       <c r="D4">
-        <v>1.019972838027906</v>
+        <v>1.019972838027908</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.007182477203324</v>
+        <v>1.007182477203326</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045228121959079</v>
+        <v>1.04522812195908</v>
       </c>
       <c r="J4">
-        <v>1.023820467648111</v>
+        <v>1.023820467648113</v>
       </c>
       <c r="K4">
-        <v>1.029836039628262</v>
+        <v>1.029836039628263</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.017194982136898</v>
+        <v>1.0171949821369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,10 +538,10 @@
         <v>1.006798231388726</v>
       </c>
       <c r="D5">
-        <v>1.021718107749478</v>
+        <v>1.021718107749477</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
         <v>1.009579571443185</v>
@@ -550,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046048431939207</v>
+        <v>1.046048431939206</v>
       </c>
       <c r="J5">
-        <v>1.02557898173113</v>
+        <v>1.025578981731129</v>
       </c>
       <c r="K5">
-        <v>1.031343083115414</v>
+        <v>1.031343083115413</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.01934200267475</v>
+        <v>1.019342002674749</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007176012676668</v>
+        <v>1.007176012676666</v>
       </c>
       <c r="D6">
-        <v>1.022009044976885</v>
+        <v>1.022009044976883</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.0099792706906</v>
+        <v>1.009979270690599</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046184926094319</v>
+        <v>1.046184926094318</v>
       </c>
       <c r="J6">
-        <v>1.025872009180671</v>
+        <v>1.02587200918067</v>
       </c>
       <c r="K6">
-        <v>1.031594152915642</v>
+        <v>1.031594152915641</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.019699904226387</v>
+        <v>1.019699904226386</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004562451082189</v>
+        <v>1.00456245108219</v>
       </c>
       <c r="D7">
-        <v>1.019996300692207</v>
+        <v>1.019996300692208</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.007214695916374</v>
+        <v>1.007214695916375</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045239166825153</v>
+        <v>1.045239166825154</v>
       </c>
       <c r="J7">
-        <v>1.023844116334441</v>
+        <v>1.023844116334442</v>
       </c>
       <c r="K7">
         <v>1.029856310145871</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.017223846375073</v>
+        <v>1.017223846375074</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,28 +649,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9932194647031204</v>
+        <v>0.9932194647031197</v>
       </c>
       <c r="D8">
         <v>1.011262192820267</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9952321332051016</v>
+        <v>0.9952321332051015</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041097604069978</v>
+        <v>1.041097604069979</v>
       </c>
       <c r="J8">
-        <v>1.015026201034347</v>
+        <v>1.015026201034346</v>
       </c>
       <c r="K8">
-        <v>1.022291741308116</v>
+        <v>1.022291741308115</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971390437273137</v>
+        <v>0.9713904372731381</v>
       </c>
       <c r="D9">
-        <v>0.9944697339956801</v>
+        <v>0.9944697339956814</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9722348545928515</v>
+        <v>0.9722348545928531</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032987728036886</v>
+        <v>1.032987728036887</v>
       </c>
       <c r="J9">
-        <v>0.9979955598721808</v>
+        <v>0.9979955598721817</v>
       </c>
       <c r="K9">
-        <v>1.007653177703775</v>
+        <v>1.007653177703776</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9857950592967404</v>
+        <v>0.9857950592967417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9552940092055153</v>
+        <v>0.9552940092055164</v>
       </c>
       <c r="D10">
-        <v>0.9821106036696816</v>
+        <v>0.9821106036696825</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9553205067538543</v>
+        <v>0.9553205067538554</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026917416676268</v>
       </c>
       <c r="J10">
-        <v>0.9854009362121396</v>
+        <v>0.9854009362121408</v>
       </c>
       <c r="K10">
-        <v>0.9968105475641583</v>
+        <v>0.9968105475641592</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9705462069586391</v>
+        <v>0.9705462069586401</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.947871447212992</v>
+        <v>0.9478714472129908</v>
       </c>
       <c r="D11">
-        <v>0.9764204183267923</v>
+        <v>0.9764204183267906</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9475312615879896</v>
+        <v>0.9475312615879878</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.02409826686786</v>
       </c>
       <c r="J11">
-        <v>0.9795859795360334</v>
+        <v>0.979585979536032</v>
       </c>
       <c r="K11">
-        <v>0.9918011451777254</v>
+        <v>0.9918011451777239</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9635154698517872</v>
+        <v>0.9635154698517857</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9450372117238799</v>
+        <v>0.9450372117238787</v>
       </c>
       <c r="D12">
-        <v>0.9742493752139094</v>
+        <v>0.9742493752139083</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9445585961524579</v>
+        <v>0.9445585961524566</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023018959663678</v>
       </c>
       <c r="J12">
-        <v>0.9773646670739815</v>
+        <v>0.9773646670739803</v>
       </c>
       <c r="K12">
-        <v>0.9898871232062511</v>
+        <v>0.9898871232062499</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9608310526029518</v>
+        <v>0.9608310526029507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9456488236828748</v>
+        <v>0.945648823682875</v>
       </c>
       <c r="D13">
-        <v>0.9747177911509184</v>
+        <v>0.9747177911509185</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9452000089653375</v>
+        <v>0.9452000089653374</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.023251993354036</v>
       </c>
       <c r="J13">
-        <v>0.9778440527012239</v>
+        <v>0.9778440527012237</v>
       </c>
       <c r="K13">
-        <v>0.9903002100590457</v>
+        <v>0.9903002100590454</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
         <v>0.9614103244669477</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9476388020079747</v>
+        <v>0.9476388020079776</v>
       </c>
       <c r="D14">
-        <v>0.9762421739714181</v>
+        <v>0.9762421739714204</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9472872214245035</v>
+        <v>0.9472872214245061</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024009729555606</v>
+        <v>1.024009729555608</v>
       </c>
       <c r="J14">
-        <v>0.9794036632115695</v>
+        <v>0.9794036632115719</v>
       </c>
       <c r="K14">
-        <v>0.9916440582778681</v>
+        <v>0.9916440582778704</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9632951178490904</v>
+        <v>0.9632951178490928</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488543635756019</v>
+        <v>0.9488543635756036</v>
       </c>
       <c r="D15">
-        <v>0.9771735644301122</v>
+        <v>0.9771735644301137</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9485623853903287</v>
+        <v>0.9485623853903303</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02447221927708</v>
+        <v>1.024472219277081</v>
       </c>
       <c r="J15">
-        <v>0.980356221946459</v>
+        <v>0.9803562219464604</v>
       </c>
       <c r="K15">
-        <v>0.992464782363784</v>
+        <v>0.9924647823637857</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9644464565416826</v>
+        <v>0.9644464565416844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9557763409109827</v>
+        <v>0.95577634091098</v>
       </c>
       <c r="D16">
-        <v>0.9824805748308446</v>
+        <v>0.9824805748308423</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9558268822486288</v>
+        <v>0.9558268822486262</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027100213197315</v>
+        <v>1.027100213197314</v>
       </c>
       <c r="J16">
-        <v>0.9857786674919782</v>
+        <v>0.9857786674919756</v>
       </c>
       <c r="K16">
-        <v>0.9971358882643268</v>
+        <v>0.9971358882643243</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9710031017989648</v>
+        <v>0.9710031017989623</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599911866655426</v>
+        <v>0.9599911866655405</v>
       </c>
       <c r="D17">
-        <v>0.985714600052796</v>
+        <v>0.985714600052794</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9602530063074919</v>
+        <v>0.9602530063074899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028695365929142</v>
+        <v>1.028695365929141</v>
       </c>
       <c r="J17">
-        <v>0.9890786777035326</v>
+        <v>0.9890786777035308</v>
       </c>
       <c r="K17">
-        <v>0.9999778277401206</v>
+        <v>0.9999778277401187</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.974995783407248</v>
+        <v>0.9749957834072462</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624066583707006</v>
+        <v>0.9624066583707036</v>
       </c>
       <c r="D18">
-        <v>0.9875687869079585</v>
+        <v>0.9875687869079616</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9627905319700922</v>
+        <v>0.9627905319700953</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029607663770871</v>
+        <v>1.029607663770873</v>
       </c>
       <c r="J18">
-        <v>0.990969191145044</v>
+        <v>0.990969191145047</v>
       </c>
       <c r="K18">
-        <v>1.001605605764851</v>
+        <v>1.001605605764854</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9772840229873642</v>
+        <v>0.9772840229873671</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9632232321934753</v>
+        <v>0.9632232321934751</v>
       </c>
       <c r="D19">
-        <v>0.9881957410282475</v>
+        <v>0.9881957410282474</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680089</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.963648532122785</v>
+        <v>0.9636485321227849</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9595434793962686</v>
+        <v>0.9595434793962684</v>
       </c>
       <c r="D20">
-        <v>0.985370990371282</v>
+        <v>0.9853709903712816</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9597827553256467</v>
+        <v>0.9597827553256463</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028526119382876</v>
       </c>
       <c r="J20">
-        <v>0.9887282152809527</v>
+        <v>0.9887282152809523</v>
       </c>
       <c r="K20">
-        <v>0.9996760449958696</v>
+        <v>0.9996760449958695</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9745716653042226</v>
+        <v>0.9745716653042222</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9470550157700466</v>
+        <v>0.9470550157700465</v>
       </c>
       <c r="D21">
-        <v>0.9757949266081393</v>
+        <v>0.975794926608139</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.946674866795072</v>
+        <v>0.9466748667950716</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023787514200988</v>
       </c>
       <c r="J21">
-        <v>0.9789461550298486</v>
+        <v>0.9789461550298482</v>
       </c>
       <c r="K21">
-        <v>0.9912498546584497</v>
+        <v>0.9912498546584494</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.962742182924425</v>
+        <v>0.9627421829244246</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9387505970328979</v>
+        <v>0.9387505970328989</v>
       </c>
       <c r="D22">
-        <v>0.969437380581235</v>
+        <v>0.969437380581236</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9379678743537737</v>
+        <v>0.9379678743537746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020619880835466</v>
+        <v>1.020619880835467</v>
       </c>
       <c r="J22">
-        <v>0.9724360567431719</v>
+        <v>0.972436056743173</v>
       </c>
       <c r="K22">
-        <v>0.9856396149026337</v>
+        <v>0.9856396149026346</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9548771973024665</v>
+        <v>0.9548771973024675</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.943199372220748</v>
+        <v>0.9431993722207455</v>
       </c>
       <c r="D23">
-        <v>0.9728421066919425</v>
+        <v>0.9728421066919403</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9426314407010856</v>
+        <v>0.9426314407010828</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022318310874464</v>
+        <v>1.022318310874463</v>
       </c>
       <c r="J23">
-        <v>0.9759240335394624</v>
+        <v>0.97592403353946</v>
       </c>
       <c r="K23">
-        <v>0.9886456714472508</v>
+        <v>0.9886456714472486</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9590904268889432</v>
+        <v>0.9590904268889404</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9597459111753612</v>
+        <v>0.959745911175359</v>
       </c>
       <c r="D24">
-        <v>0.9855263517108275</v>
+        <v>0.9855263517108253</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9599953772626064</v>
+        <v>0.9599953772626039</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028602650373579</v>
+        <v>1.028602650373577</v>
       </c>
       <c r="J24">
-        <v>0.9888866797215942</v>
+        <v>0.9888866797215919</v>
       </c>
       <c r="K24">
-        <v>0.9998124995102572</v>
+        <v>0.999812499510255</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442451</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9747634309250806</v>
+        <v>0.9747634309250781</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9772804770275277</v>
+        <v>0.9772804770275276</v>
       </c>
       <c r="D25">
-        <v>0.99899781564604</v>
+        <v>0.9989978156460397</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717734</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9784328576179128</v>
+        <v>0.9784328576179125</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035191545428239</v>
+        <v>1.035191545428238</v>
       </c>
       <c r="J25">
         <v>1.00259740409646</v>
       </c>
       <c r="K25">
-        <v>1.011611709182911</v>
+        <v>1.01161170918291</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005612</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9913754641387668</v>
+        <v>0.9913754641387664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9901840127146418</v>
+        <v>0.9931822010361879</v>
       </c>
       <c r="D2">
-        <v>1.008925553019903</v>
+        <v>1.011259597563796</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9920295866414415</v>
+        <v>0.9948116762105351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03998002205416</v>
+        <v>1.041296909712665</v>
       </c>
       <c r="J2">
-        <v>1.01266233528763</v>
+        <v>1.015568761264489</v>
       </c>
       <c r="K2">
-        <v>1.020261925596712</v>
+        <v>1.022564265746409</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.003601090279901</v>
+        <v>1.006343769019654</v>
+      </c>
+      <c r="N2">
+        <v>1.017010985392849</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9990265781683578</v>
+        <v>1.00199625705143</v>
       </c>
       <c r="D3">
-        <v>1.015733300368919</v>
+        <v>1.018048071219307</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.00136357932143</v>
+        <v>1.004114780867676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043225068391842</v>
+        <v>1.044532919582114</v>
       </c>
       <c r="J3">
-        <v>1.019543814865652</v>
+        <v>1.0224326496252</v>
       </c>
       <c r="K3">
-        <v>1.026168751970227</v>
+        <v>1.02845511640042</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.011979042577139</v>
+        <v>1.014695281654348</v>
+      </c>
+      <c r="N3">
+        <v>1.023884621262332</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004531984304932</v>
+        <v>1.007485288745504</v>
       </c>
       <c r="D4">
-        <v>1.019972838027908</v>
+        <v>1.022276603727801</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.007182477203326</v>
+        <v>1.009915841464054</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04522812195908</v>
+        <v>1.046530912432021</v>
       </c>
       <c r="J4">
-        <v>1.023820467648113</v>
+        <v>1.026699439012211</v>
       </c>
       <c r="K4">
-        <v>1.029836039628263</v>
+        <v>1.032113403268778</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.0171949821369</v>
+        <v>1.019896046182955</v>
+      </c>
+      <c r="N4">
+        <v>1.02815746997968</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006798231388726</v>
+        <v>1.009745093729115</v>
       </c>
       <c r="D5">
-        <v>1.021718107749477</v>
+        <v>1.024017560049739</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.009579571443185</v>
+        <v>1.012305894725634</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046048431939206</v>
+        <v>1.047349263308287</v>
       </c>
       <c r="J5">
-        <v>1.025578981731129</v>
+        <v>1.028454130123305</v>
       </c>
       <c r="K5">
-        <v>1.031343083115413</v>
+        <v>1.033616948210265</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.019342002674749</v>
+        <v>1.022037099170127</v>
+      </c>
+      <c r="N5">
+        <v>1.029914652953418</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007176012676666</v>
+        <v>1.010121817835414</v>
       </c>
       <c r="D6">
-        <v>1.022009044976883</v>
+        <v>1.024307790412613</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.009979270690599</v>
+        <v>1.012704437124828</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046184926094318</v>
+        <v>1.047485437878516</v>
       </c>
       <c r="J6">
-        <v>1.02587200918067</v>
+        <v>1.02874653360715</v>
       </c>
       <c r="K6">
-        <v>1.031594152915641</v>
+        <v>1.033867446420472</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.019699904226386</v>
+        <v>1.022394021577971</v>
+      </c>
+      <c r="N6">
+        <v>1.030207471683749</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00456245108219</v>
+        <v>1.007515667773151</v>
       </c>
       <c r="D7">
-        <v>1.019996300692208</v>
+        <v>1.022300007571282</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.007214695916375</v>
+        <v>1.009947964364585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045239166825154</v>
+        <v>1.046541930482565</v>
       </c>
       <c r="J7">
-        <v>1.023844116334442</v>
+        <v>1.026723035392518</v>
       </c>
       <c r="K7">
-        <v>1.029856310145871</v>
+        <v>1.032133625958889</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.017223846375074</v>
+        <v>1.019924829124526</v>
+      </c>
+      <c r="N7">
+        <v>1.028181099869554</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9932194647031197</v>
+        <v>0.996207553099802</v>
       </c>
       <c r="D8">
-        <v>1.011262192820267</v>
+        <v>1.013589395331388</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9952321332051015</v>
+        <v>0.9980033017941063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041097604069979</v>
+        <v>1.042411261937855</v>
       </c>
       <c r="J8">
-        <v>1.015026201034346</v>
+        <v>1.017926341069989</v>
       </c>
       <c r="K8">
-        <v>1.022291741308115</v>
+        <v>1.024588382958136</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.006477077970699</v>
+        <v>1.009210387728456</v>
+      </c>
+      <c r="N8">
+        <v>1.019371913232092</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9713904372731381</v>
+        <v>0.9744588864366472</v>
       </c>
       <c r="D9">
-        <v>0.9944697339956814</v>
+        <v>0.9968516714192392</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9722348545928531</v>
+        <v>0.9750924240818128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032987728036887</v>
+        <v>1.034327711921263</v>
       </c>
       <c r="J9">
-        <v>0.9979955598721817</v>
+        <v>1.000946965722771</v>
       </c>
       <c r="K9">
-        <v>1.007653177703776</v>
+        <v>1.009996035418521</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9857950592967417</v>
+        <v>0.9886029635051626</v>
+      </c>
+      <c r="N9">
+        <v>1.002368425224319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9552940092055164</v>
+        <v>0.9584342442851003</v>
       </c>
       <c r="D10">
-        <v>0.9821106036696825</v>
+        <v>0.9845418000150489</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9553205067538554</v>
+        <v>0.9582545785978145</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026917416676268</v>
+        <v>1.028281747757533</v>
       </c>
       <c r="J10">
-        <v>0.9854009362121408</v>
+        <v>0.9883999036006449</v>
       </c>
       <c r="K10">
-        <v>0.9968105475641592</v>
+        <v>0.9991958810508341</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9705462069586401</v>
+        <v>0.9734208097886315</v>
+      </c>
+      <c r="N10">
+        <v>0.9898035448348113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9478714472129908</v>
+        <v>0.9510488317951458</v>
       </c>
       <c r="D11">
-        <v>0.9764204183267906</v>
+        <v>0.9788771798669935</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9475312615879878</v>
+        <v>0.9505047578080872</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02409826686786</v>
+        <v>1.025475389213669</v>
       </c>
       <c r="J11">
-        <v>0.979585979536032</v>
+        <v>0.9826100082060504</v>
       </c>
       <c r="K11">
-        <v>0.9918011451777239</v>
+        <v>0.9942087466209282</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9635154698517857</v>
+        <v>0.9664246039495969</v>
+      </c>
+      <c r="N11">
+        <v>0.9840054271246464</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9450372117238787</v>
+        <v>0.9482295102769172</v>
       </c>
       <c r="D12">
-        <v>0.9742493752139083</v>
+        <v>0.9767164098445055</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9445585961524566</v>
+        <v>0.9475478943759833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023018959663678</v>
+        <v>1.024401245397836</v>
       </c>
       <c r="J12">
-        <v>0.9773646670739803</v>
+        <v>0.9803988267286941</v>
       </c>
       <c r="K12">
-        <v>0.9898871232062499</v>
+        <v>0.9923037076405599</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9608310526029507</v>
+        <v>0.9637540517173213</v>
+      </c>
+      <c r="N12">
+        <v>0.9817911055159658</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.945648823682875</v>
+        <v>0.9488378687629131</v>
       </c>
       <c r="D13">
-        <v>0.9747177911509185</v>
+        <v>0.9771825843006037</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9452000089653374</v>
+        <v>0.9481858611257423</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023251993354036</v>
+        <v>1.024633151443737</v>
       </c>
       <c r="J13">
-        <v>0.9778440527012237</v>
+        <v>0.9808759991142075</v>
       </c>
       <c r="K13">
-        <v>0.9903002100590454</v>
+        <v>0.9927148329154166</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9614103244669477</v>
+        <v>0.9643302988401992</v>
+      </c>
+      <c r="N13">
+        <v>0.9822689555409994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9476388020079776</v>
+        <v>0.9508173952485793</v>
       </c>
       <c r="D14">
-        <v>0.9762421739714204</v>
+        <v>0.9786997678780149</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9472872214245061</v>
+        <v>0.9502619987746327</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024009729555608</v>
+        <v>1.025387269794276</v>
       </c>
       <c r="J14">
-        <v>0.9794036632115719</v>
+        <v>0.9824285115100598</v>
       </c>
       <c r="K14">
-        <v>0.9916440582778704</v>
+        <v>0.9940523868569077</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9632951178490928</v>
+        <v>0.9662053755529603</v>
+      </c>
+      <c r="N14">
+        <v>0.9838236726825296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488543635756036</v>
+        <v>0.9520266719313472</v>
       </c>
       <c r="D15">
-        <v>0.9771735644301137</v>
+        <v>0.9796268305053797</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9485623853903303</v>
+        <v>0.9515305000089682</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024472219277081</v>
+        <v>1.025847587637789</v>
       </c>
       <c r="J15">
-        <v>0.9803562219464604</v>
+        <v>0.9833768110613827</v>
       </c>
       <c r="K15">
-        <v>0.9924647823637857</v>
+        <v>0.9948693316412134</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9644464565416844</v>
+        <v>0.9673508717089624</v>
+      </c>
+      <c r="N15">
+        <v>0.9847733189279869</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.95577634091098</v>
+        <v>0.9589142544090196</v>
       </c>
       <c r="D16">
-        <v>0.9824805748308423</v>
+        <v>0.9849101748698988</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9558268822486262</v>
+        <v>0.9587584870755168</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027100213197314</v>
+        <v>1.028463748619464</v>
       </c>
       <c r="J16">
-        <v>0.9857786674919756</v>
+        <v>0.988776077696672</v>
       </c>
       <c r="K16">
-        <v>0.9971358882643243</v>
+        <v>0.9995198357905941</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9710031017989623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9738755469494068</v>
+      </c>
+      <c r="N16">
+        <v>0.9901802531412026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599911866655405</v>
+        <v>0.9631092759654922</v>
       </c>
       <c r="D17">
-        <v>0.985714600052794</v>
+        <v>0.98813057666482</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9602530063074899</v>
+        <v>0.9631635276011827</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028695365929141</v>
+        <v>1.030052127174634</v>
       </c>
       <c r="J17">
-        <v>0.9890786777035308</v>
+        <v>0.9920628382494192</v>
       </c>
       <c r="K17">
-        <v>0.9999778277401187</v>
+        <v>1.002349970519266</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9749957834072462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9778498054439997</v>
+      </c>
+      <c r="N17">
+        <v>0.9934716812709317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624066583707036</v>
+        <v>0.9655137534597801</v>
       </c>
       <c r="D18">
-        <v>0.9875687869079616</v>
+        <v>0.9899772146110544</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9627905319700953</v>
+        <v>0.9656893462979669</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029607663770873</v>
+        <v>1.030960684764701</v>
       </c>
       <c r="J18">
-        <v>0.990969191145047</v>
+        <v>0.9939460422437213</v>
       </c>
       <c r="K18">
-        <v>1.001605605764854</v>
+        <v>1.003971226593595</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9772840229873671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.980127829084941</v>
+      </c>
+      <c r="N18">
+        <v>0.9953575596309119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9632232321934751</v>
+        <v>0.9663266697408561</v>
       </c>
       <c r="D19">
-        <v>0.9881957410282474</v>
+        <v>0.9906016584954913</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9636485321227849</v>
+        <v>0.9665434493647557</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029915754829843</v>
+        <v>1.031267534353843</v>
       </c>
       <c r="J19">
-        <v>0.9916081785571268</v>
+        <v>0.9945826044444721</v>
       </c>
       <c r="K19">
-        <v>1.002155734055891</v>
+        <v>1.004519189369454</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9780575980282402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9808980057119751</v>
+      </c>
+      <c r="N19">
+        <v>0.9959950258230023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9595434793962684</v>
+        <v>0.9626636355077028</v>
       </c>
       <c r="D20">
-        <v>0.9853709903712816</v>
+        <v>0.9877883866495734</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9597827553256463</v>
+        <v>0.9626954762400928</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028526119382876</v>
+        <v>1.029883585136159</v>
       </c>
       <c r="J20">
-        <v>0.9887282152809523</v>
+        <v>0.9917137531081401</v>
       </c>
       <c r="K20">
-        <v>0.9996760449958695</v>
+        <v>1.002049415887031</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9745716653042222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9774276079479542</v>
+      </c>
+      <c r="N20">
+        <v>0.9931221003887111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9470550157700465</v>
+        <v>0.9502366541054502</v>
       </c>
       <c r="D21">
-        <v>0.975794926608139</v>
+        <v>0.9782546177286637</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9466748667950716</v>
+        <v>0.9496528714241492</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023787514200988</v>
+        <v>1.025166107724683</v>
       </c>
       <c r="J21">
-        <v>0.9789461550298482</v>
+        <v>0.9819730694181342</v>
       </c>
       <c r="K21">
-        <v>0.9912498546584494</v>
+        <v>0.9936600158716684</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9627421829244246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9656552714762697</v>
+      </c>
+      <c r="N21">
+        <v>0.9833675838105933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9387505970328989</v>
+        <v>0.9419774914071067</v>
       </c>
       <c r="D22">
-        <v>0.969437380581236</v>
+        <v>0.9719282624425084</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9379678743537746</v>
+        <v>0.9409937801609091</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020619880835467</v>
+        <v>1.022014197009191</v>
       </c>
       <c r="J22">
-        <v>0.972436056743173</v>
+        <v>0.9754938531581596</v>
       </c>
       <c r="K22">
-        <v>0.9856396149026346</v>
+        <v>0.988077119735766</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9548771973024675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9578323631133062</v>
+      </c>
+      <c r="N22">
+        <v>0.9768791663203531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9431993722207455</v>
+        <v>0.9464015652390896</v>
       </c>
       <c r="D23">
-        <v>0.9728421066919403</v>
+        <v>0.9753159594373262</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9426314407010828</v>
+        <v>0.9456312153625477</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022318310874463</v>
+        <v>1.023704030112808</v>
       </c>
       <c r="J23">
-        <v>0.97592403353946</v>
+        <v>0.9789649346125401</v>
       </c>
       <c r="K23">
-        <v>0.9886456714472486</v>
+        <v>0.9910682278335069</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9590904268889404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9620226251681226</v>
+      </c>
+      <c r="N23">
+        <v>0.9803551771085375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.959745911175359</v>
+        <v>0.962865131640358</v>
       </c>
       <c r="D24">
-        <v>0.9855263517108253</v>
+        <v>0.9879431052851662</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9599953772626039</v>
+        <v>0.9629071024530591</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028602650373577</v>
+        <v>1.02995979714343</v>
       </c>
       <c r="J24">
-        <v>0.9888866797215919</v>
+        <v>0.991871593931235</v>
       </c>
       <c r="K24">
-        <v>0.999812499510255</v>
+        <v>1.002185314356363</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9747634309250781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9776185041052665</v>
+      </c>
+      <c r="N24">
+        <v>0.9932801653638792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9772804770275276</v>
+        <v>0.9803254217540205</v>
       </c>
       <c r="D25">
-        <v>0.9989978156460397</v>
+        <v>1.001363684766863</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9784328576179125</v>
+        <v>0.9812652585463059</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035191545428238</v>
+        <v>1.036523700751333</v>
       </c>
       <c r="J25">
-        <v>1.00259740409646</v>
+        <v>1.005533552762182</v>
       </c>
       <c r="K25">
-        <v>1.01161170918291</v>
+        <v>1.013940868106842</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9913754641387664</v>
+        <v>0.9941615404756543</v>
+      </c>
+      <c r="N25">
+        <v>1.006961525743415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9931822010361879</v>
+        <v>0.9945860006482117</v>
       </c>
       <c r="D2">
-        <v>1.011259597563796</v>
+        <v>1.012430679595637</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9948116762105351</v>
+        <v>1.000809374675593</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041296909712665</v>
+        <v>1.038493598877704</v>
       </c>
       <c r="J2">
-        <v>1.015568761264489</v>
+        <v>1.016929858206475</v>
       </c>
       <c r="K2">
-        <v>1.022564265746409</v>
+        <v>1.023719509690645</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.006343769019654</v>
+        <v>1.012257445128697</v>
       </c>
       <c r="N2">
-        <v>1.017010985392849</v>
+        <v>1.018374015248614</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00199625705143</v>
+        <v>1.003060532218363</v>
       </c>
       <c r="D3">
-        <v>1.018048071219307</v>
+        <v>1.01894272272001</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.004114780867676</v>
+        <v>1.009435829675711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044532919582114</v>
+        <v>1.04132227260717</v>
       </c>
       <c r="J3">
-        <v>1.0224326496252</v>
+        <v>1.023468110336721</v>
       </c>
       <c r="K3">
-        <v>1.02845511640042</v>
+        <v>1.02933883190227</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.014695281654348</v>
+        <v>1.019949384296272</v>
       </c>
       <c r="N3">
-        <v>1.023884621262332</v>
+        <v>1.024921552446832</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007485288745504</v>
+        <v>1.008350233689971</v>
       </c>
       <c r="D4">
-        <v>1.022276603727801</v>
+        <v>1.023009573818314</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.009915841464054</v>
+        <v>1.014827005333288</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046530912432021</v>
+        <v>1.043073984825045</v>
       </c>
       <c r="J4">
-        <v>1.026699439012211</v>
+        <v>1.027542724948868</v>
       </c>
       <c r="K4">
-        <v>1.032113403268778</v>
+        <v>1.032838003997256</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.019896046182955</v>
+        <v>1.024749715352748</v>
       </c>
       <c r="N4">
-        <v>1.02815746997968</v>
+        <v>1.029001953479093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009745093729115</v>
+        <v>1.010530622446841</v>
       </c>
       <c r="D5">
-        <v>1.024017560049739</v>
+        <v>1.024686279720429</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.012305894725634</v>
+        <v>1.017050782525239</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047349263308287</v>
+        <v>1.04379262154775</v>
       </c>
       <c r="J5">
-        <v>1.028454130123305</v>
+        <v>1.029220637333878</v>
       </c>
       <c r="K5">
-        <v>1.033616948210265</v>
+        <v>1.034278253193463</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.022037099170127</v>
+        <v>1.026728131926391</v>
       </c>
       <c r="N5">
-        <v>1.029914652953418</v>
+        <v>1.030682248692149</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010121817835414</v>
+        <v>1.010894256219241</v>
       </c>
       <c r="D6">
-        <v>1.024307790412613</v>
+        <v>1.024965929914876</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.012704437124828</v>
+        <v>1.017421743342107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047485437878516</v>
+        <v>1.043912269338061</v>
       </c>
       <c r="J6">
-        <v>1.02874653360715</v>
+        <v>1.029500373342</v>
       </c>
       <c r="K6">
-        <v>1.033867446420472</v>
+        <v>1.034518324774561</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.022394021577971</v>
+        <v>1.027058065571447</v>
       </c>
       <c r="N6">
-        <v>1.030207471683749</v>
+        <v>1.030962381957489</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007515667773151</v>
+        <v>1.008379534931781</v>
       </c>
       <c r="D7">
-        <v>1.022300007571282</v>
+        <v>1.023032105004263</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.009947964364585</v>
+        <v>1.014856883506831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046541930482565</v>
+        <v>1.043083655860594</v>
       </c>
       <c r="J7">
-        <v>1.026723035392518</v>
+        <v>1.027565280161684</v>
       </c>
       <c r="K7">
-        <v>1.032133625958889</v>
+        <v>1.032857367250114</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.019924829124526</v>
+        <v>1.02477630345325</v>
       </c>
       <c r="N7">
-        <v>1.028181099869554</v>
+        <v>1.029024540722899</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996207553099802</v>
+        <v>0.9974920703960133</v>
       </c>
       <c r="D8">
-        <v>1.013589395331388</v>
+        <v>1.014663240974478</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9980033017941063</v>
+        <v>1.003766111808787</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042411261937855</v>
+        <v>1.039466504097621</v>
       </c>
       <c r="J8">
-        <v>1.017926341069989</v>
+        <v>1.019173273329137</v>
       </c>
       <c r="K8">
-        <v>1.024588382958136</v>
+        <v>1.025648186056274</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.009210387728456</v>
+        <v>1.014895309244525</v>
       </c>
       <c r="N8">
-        <v>1.019371913232092</v>
+        <v>1.020620616278072</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9744588864366472</v>
+        <v>0.976667681887737</v>
       </c>
       <c r="D9">
-        <v>0.9968516714192392</v>
+        <v>0.9986808471772743</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9750924240818128</v>
+        <v>0.9826093741905813</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034327711921263</v>
+        <v>1.032437249684703</v>
       </c>
       <c r="J9">
-        <v>1.000946965722771</v>
+        <v>1.003072149768476</v>
       </c>
       <c r="K9">
-        <v>1.009996035418521</v>
+        <v>1.011795363034333</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9886029635051626</v>
+        <v>0.9959910478039684</v>
       </c>
       <c r="N9">
-        <v>1.002368425224319</v>
+        <v>1.004496627275131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9584342442851003</v>
+        <v>0.9614305131882751</v>
       </c>
       <c r="D10">
-        <v>0.9845418000150489</v>
+        <v>0.9870154387045306</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9582545785978145</v>
+        <v>0.9671708801829129</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028281747757533</v>
+        <v>1.027223849750454</v>
       </c>
       <c r="J10">
-        <v>0.9883999036006449</v>
+        <v>0.9912626119239017</v>
       </c>
       <c r="K10">
-        <v>0.9991958810508341</v>
+        <v>1.001623158880749</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9734208097886315</v>
+        <v>0.9821592992858647</v>
       </c>
       <c r="N10">
-        <v>0.9898035448348113</v>
+        <v>0.9926703185322445</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9510488317951458</v>
+        <v>0.9544416998864907</v>
       </c>
       <c r="D11">
-        <v>0.9788771798669935</v>
+        <v>0.9816749686379304</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9505047578080872</v>
+        <v>0.9601005310309726</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025475389213669</v>
+        <v>1.024817476297068</v>
       </c>
       <c r="J11">
-        <v>0.9826100082060504</v>
+        <v>0.9858407426321577</v>
       </c>
       <c r="K11">
-        <v>0.9942087466209282</v>
+        <v>0.9969509449878553</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9664246039495969</v>
+        <v>0.9758162698326213</v>
       </c>
       <c r="N11">
-        <v>0.9840054271246464</v>
+        <v>0.9872407495642092</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9482295102769172</v>
+        <v>0.9517797651897314</v>
       </c>
       <c r="D12">
-        <v>0.9767164098445055</v>
+        <v>0.9796427016745251</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9475478943759833</v>
+        <v>0.9574092494442132</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024401245397836</v>
+        <v>1.023898800330838</v>
       </c>
       <c r="J12">
-        <v>0.9803988267286941</v>
+        <v>0.9837750077255164</v>
       </c>
       <c r="K12">
-        <v>0.9923037076405599</v>
+        <v>0.995170591464393</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9637540517173213</v>
+        <v>0.9734005857385202</v>
       </c>
       <c r="N12">
-        <v>0.9817911055159658</v>
+        <v>0.9851720810770572</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9488378687629131</v>
+        <v>0.9523538751979411</v>
       </c>
       <c r="D13">
-        <v>0.9771825843006037</v>
+        <v>0.9800809201753641</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9481858611257423</v>
+        <v>0.9579896102586144</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024633151443737</v>
+        <v>1.024097027924793</v>
       </c>
       <c r="J13">
-        <v>0.9808759991142075</v>
+        <v>0.9842205584197999</v>
       </c>
       <c r="K13">
-        <v>0.9927148329154166</v>
+        <v>0.9955545987661376</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9643302988401992</v>
+        <v>0.9739215713342053</v>
       </c>
       <c r="N13">
-        <v>0.9822689555409994</v>
+        <v>0.9856182645044319</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9508173952485793</v>
+        <v>0.9542230559180915</v>
       </c>
       <c r="D14">
-        <v>0.9786997678780149</v>
+        <v>0.9815080046188835</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9502619987746327</v>
+        <v>0.959879441475508</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025387269794276</v>
+        <v>1.024742060824132</v>
       </c>
       <c r="J14">
-        <v>0.9824285115100598</v>
+        <v>0.985671080552197</v>
       </c>
       <c r="K14">
-        <v>0.9940523868569077</v>
+        <v>0.9968047260950714</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9662053755529603</v>
+        <v>0.9756178458474478</v>
       </c>
       <c r="N14">
-        <v>0.9838236726825296</v>
+        <v>0.9870708465446341</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9520266719313472</v>
+        <v>0.9553657388243506</v>
       </c>
       <c r="D15">
-        <v>0.9796268305053797</v>
+        <v>0.9823806729558997</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9515305000089682</v>
+        <v>0.961034975381191</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025847587637789</v>
+        <v>1.025136114021465</v>
       </c>
       <c r="J15">
-        <v>0.9833768110613827</v>
+        <v>0.9865577486337674</v>
       </c>
       <c r="K15">
-        <v>0.9948693316412134</v>
+        <v>0.997568868956076</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9673508717089624</v>
+        <v>0.9766548666139554</v>
       </c>
       <c r="N15">
-        <v>0.9847733189279869</v>
+        <v>0.9879587737965829</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9589142544090196</v>
+        <v>0.9618855105327614</v>
       </c>
       <c r="D16">
-        <v>0.9849101748698988</v>
+        <v>0.9873633563390665</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9587584870755168</v>
+        <v>0.9676314150001312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028463748619464</v>
+        <v>1.027380213964776</v>
       </c>
       <c r="J16">
-        <v>0.988776077696672</v>
+        <v>0.9916155009086135</v>
       </c>
       <c r="K16">
-        <v>0.9995198357905941</v>
+        <v>1.001927219029779</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9738755469494068</v>
+        <v>0.9825722861701548</v>
       </c>
       <c r="N16">
-        <v>0.9901802531412026</v>
+        <v>0.9930237086597915</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9631092759654922</v>
+        <v>0.9658657815639069</v>
       </c>
       <c r="D17">
-        <v>0.98813057666482</v>
+        <v>0.9904080682726331</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9631635276011827</v>
+        <v>0.9716613464080093</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030052127174634</v>
+        <v>1.028746391488483</v>
       </c>
       <c r="J17">
-        <v>0.9920628382494192</v>
+        <v>0.9947019716091535</v>
       </c>
       <c r="K17">
-        <v>1.002349970519266</v>
+        <v>1.00458639532344</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9778498054439997</v>
+        <v>0.9861851949542644</v>
       </c>
       <c r="N17">
-        <v>0.9934716812709317</v>
+        <v>0.9961145625027494</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9655137534597801</v>
+        <v>0.9681502283949451</v>
       </c>
       <c r="D18">
-        <v>0.9899772146110544</v>
+        <v>0.9921564751016659</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9656893462979669</v>
+        <v>0.97397529624065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030960684764701</v>
+        <v>1.029529076539928</v>
       </c>
       <c r="J18">
-        <v>0.9939460422437213</v>
+        <v>0.9964729325139351</v>
       </c>
       <c r="K18">
-        <v>1.003971226593595</v>
+        <v>1.006111985570487</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.980127829084941</v>
+        <v>0.9882588975881966</v>
       </c>
       <c r="N18">
-        <v>0.9953575596309119</v>
+        <v>0.9978880383751475</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9663266697408561</v>
+        <v>0.9689230592989755</v>
       </c>
       <c r="D19">
-        <v>0.9906016584954913</v>
+        <v>0.9927481099414313</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>0.9665434493647557</v>
+        <v>0.9747582755074617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031267534353843</v>
+        <v>1.029793614370551</v>
       </c>
       <c r="J19">
-        <v>0.9945826044444721</v>
+        <v>0.9970719622363754</v>
       </c>
       <c r="K19">
-        <v>1.004519189369454</v>
+        <v>1.0066279830199</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9808980057119751</v>
+        <v>0.9889604477005183</v>
       </c>
       <c r="N19">
-        <v>0.9959950258230023</v>
+        <v>0.9984879187885037</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9626636355077028</v>
+        <v>0.965442629893195</v>
       </c>
       <c r="D20">
-        <v>0.9877883866495734</v>
+        <v>0.9900842804470014</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9626954762400928</v>
+        <v>0.9712328105097757</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029883585136159</v>
+        <v>1.028601297079672</v>
       </c>
       <c r="J20">
-        <v>0.9917137531081401</v>
+        <v>0.994373892476754</v>
       </c>
       <c r="K20">
-        <v>1.002049415887031</v>
+        <v>1.004303755847998</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9774276079479542</v>
+        <v>0.9858010872313385</v>
       </c>
       <c r="N20">
-        <v>0.9931221003887111</v>
+        <v>0.9957860174603508</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9502366541054502</v>
+        <v>0.9536745146868624</v>
       </c>
       <c r="D21">
-        <v>0.9782546177286637</v>
+        <v>0.9810891504496716</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9496528714241492</v>
+        <v>0.9593247924205023</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025166107724683</v>
+        <v>1.024552822440998</v>
       </c>
       <c r="J21">
-        <v>0.9819730694181342</v>
+        <v>0.9852454172315676</v>
       </c>
       <c r="K21">
-        <v>0.9936600158716684</v>
+        <v>0.9964378755740706</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9656552714762697</v>
+        <v>0.9751200380861836</v>
       </c>
       <c r="N21">
-        <v>0.9833675838105933</v>
+        <v>0.9866445787332649</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9419774914071067</v>
+        <v>0.9458891076694229</v>
       </c>
       <c r="D22">
-        <v>0.9719282624425084</v>
+        <v>0.9751492554598356</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9409937801609091</v>
+        <v>0.9514569184375495</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022014197009191</v>
+        <v>1.021862099119664</v>
       </c>
       <c r="J22">
-        <v>0.9754938531581596</v>
+        <v>0.9792027323709375</v>
       </c>
       <c r="K22">
-        <v>0.988077119735766</v>
+        <v>0.9912296254024281</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9578323631133062</v>
+        <v>0.9680555166171823</v>
       </c>
       <c r="N22">
-        <v>0.9768791663203531</v>
+        <v>0.9805933125670275</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9464015652390896</v>
+        <v>0.9500556904680592</v>
       </c>
       <c r="D23">
-        <v>0.9753159594373262</v>
+        <v>0.9783270116264476</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>0.9456312153625477</v>
+        <v>0.9556666611917564</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023704030112808</v>
+        <v>1.023303216641282</v>
       </c>
       <c r="J23">
-        <v>0.9789649346125401</v>
+        <v>0.9824369232839703</v>
       </c>
       <c r="K23">
-        <v>0.9910682278335069</v>
+        <v>0.9940173063081716</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9620226251681226</v>
+        <v>0.9718360961294147</v>
       </c>
       <c r="N23">
-        <v>0.9803551771085375</v>
+        <v>0.9838320964021238</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.962865131640358</v>
+        <v>0.965633948278949</v>
       </c>
       <c r="D24">
-        <v>0.9879431052851662</v>
+        <v>0.990230670903845</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9629071024530591</v>
+        <v>0.9714265601436468</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02995979714343</v>
+        <v>1.028666902646561</v>
       </c>
       <c r="J24">
-        <v>0.991871593931235</v>
+        <v>0.994522227534694</v>
       </c>
       <c r="K24">
-        <v>1.002185314356363</v>
+        <v>1.004431546802959</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9776185041052665</v>
+        <v>0.9859747524803077</v>
       </c>
       <c r="N24">
-        <v>0.9932801653638792</v>
+        <v>0.9959345631710873</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9803254217540205</v>
+        <v>0.9822692565061449</v>
       </c>
       <c r="D25">
-        <v>1.001363684766863</v>
+        <v>1.002976025649888</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9812652585463059</v>
+        <v>0.9882935418521976</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036523700751333</v>
+        <v>1.034340302401041</v>
       </c>
       <c r="J25">
-        <v>1.005533552762182</v>
+        <v>1.007408427795005</v>
       </c>
       <c r="K25">
-        <v>1.013940868106842</v>
+        <v>1.015528317656265</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9941615404756543</v>
+        <v>1.001076345127176</v>
       </c>
       <c r="N25">
-        <v>1.006961525743415</v>
+        <v>1.008839063313836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9945860006482117</v>
+        <v>1.016367512756758</v>
       </c>
       <c r="D2">
-        <v>1.012430679595637</v>
+        <v>1.03242142622427</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.000809374675593</v>
+        <v>1.033691884552042</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038493598877704</v>
+        <v>1.048880822607106</v>
       </c>
       <c r="J2">
-        <v>1.016929858206475</v>
+        <v>1.038069457136897</v>
       </c>
       <c r="K2">
-        <v>1.023719509690645</v>
+        <v>1.043446827681347</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.012257445128697</v>
+        <v>1.044700975047575</v>
       </c>
       <c r="N2">
-        <v>1.018374015248614</v>
+        <v>1.0163710356227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003060532218363</v>
+        <v>1.020788263289178</v>
       </c>
       <c r="D3">
-        <v>1.01894272272001</v>
+        <v>1.035747579243535</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.009435829675711</v>
+        <v>1.037741644424043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04132227260717</v>
+        <v>1.050189434549234</v>
       </c>
       <c r="J3">
-        <v>1.023468110336721</v>
+        <v>1.040727826550928</v>
       </c>
       <c r="K3">
-        <v>1.02933883190227</v>
+        <v>1.045942615817837</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.019949384296272</v>
+        <v>1.047913356420071</v>
       </c>
       <c r="N3">
-        <v>1.024921552446832</v>
+        <v>1.017269350065018</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008350233689971</v>
+        <v>1.023590428189011</v>
       </c>
       <c r="D4">
-        <v>1.023009573818314</v>
+        <v>1.037859119783962</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.014827005333288</v>
+        <v>1.040314714976072</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043073984825045</v>
+        <v>1.05101027421838</v>
       </c>
       <c r="J4">
-        <v>1.027542724948868</v>
+        <v>1.042409350574791</v>
       </c>
       <c r="K4">
-        <v>1.032838003997256</v>
+        <v>1.047521121080073</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.024749715352748</v>
+        <v>1.049949757092013</v>
       </c>
       <c r="N4">
-        <v>1.029001953479093</v>
+        <v>1.017837395881849</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010530622446841</v>
+        <v>1.024754966881814</v>
       </c>
       <c r="D5">
-        <v>1.024686279720429</v>
+        <v>1.038737367763112</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.017050782525239</v>
+        <v>1.041385463928486</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04379262154775</v>
+        <v>1.051349294945081</v>
       </c>
       <c r="J5">
-        <v>1.029220637333878</v>
+        <v>1.04310728973414</v>
       </c>
       <c r="K5">
-        <v>1.034278253193463</v>
+        <v>1.048176250139062</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.026728131926391</v>
+        <v>1.050796060991196</v>
       </c>
       <c r="N5">
-        <v>1.030682248692149</v>
+        <v>1.018073125922434</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010894256219241</v>
+        <v>1.02494972040476</v>
       </c>
       <c r="D6">
-        <v>1.024965929914876</v>
+        <v>1.038884284162229</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.017421743342107</v>
+        <v>1.041564614728344</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043912269338061</v>
+        <v>1.051405866721217</v>
       </c>
       <c r="J6">
-        <v>1.029500373342</v>
+        <v>1.043223958236279</v>
       </c>
       <c r="K6">
-        <v>1.034518324774561</v>
+        <v>1.048285759239015</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.027058065571447</v>
+        <v>1.050937593258007</v>
       </c>
       <c r="N6">
-        <v>1.030962381957489</v>
+        <v>1.018112528147391</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008379534931781</v>
+        <v>1.023606041206271</v>
       </c>
       <c r="D7">
-        <v>1.023032105004263</v>
+        <v>1.03787089169504</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.014856883506831</v>
+        <v>1.040329064993845</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043083655860594</v>
+        <v>1.051014827855396</v>
       </c>
       <c r="J7">
-        <v>1.027565280161684</v>
+        <v>1.042418711380943</v>
       </c>
       <c r="K7">
-        <v>1.032857367250114</v>
+        <v>1.047529907925005</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.02477630345325</v>
+        <v>1.04996110354919</v>
       </c>
       <c r="N7">
-        <v>1.029024540722899</v>
+        <v>1.017840557691064</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9974920703960133</v>
+        <v>1.017873905279053</v>
       </c>
       <c r="D8">
-        <v>1.014663240974478</v>
+        <v>1.033554128634497</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.003766111808787</v>
+        <v>1.035070565706886</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039466504097621</v>
+        <v>1.049328530614393</v>
       </c>
       <c r="J8">
-        <v>1.019173273329137</v>
+        <v>1.038976029766421</v>
       </c>
       <c r="K8">
-        <v>1.025648186056274</v>
+        <v>1.044297988864982</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.014895309244525</v>
+        <v>1.045795548608649</v>
       </c>
       <c r="N8">
-        <v>1.020620616278072</v>
+        <v>1.016677418470585</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.976667681887737</v>
+        <v>1.007303428110957</v>
       </c>
       <c r="D9">
-        <v>0.9986808471772743</v>
+        <v>1.025621446990313</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9826093741905813</v>
+        <v>1.025423578918973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032437249684703</v>
+        <v>1.046151648723232</v>
       </c>
       <c r="J9">
-        <v>1.003072149768476</v>
+        <v>1.032600893584854</v>
       </c>
       <c r="K9">
-        <v>1.011795363034333</v>
+        <v>1.038312074562866</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9959910478039684</v>
+        <v>1.038117216266289</v>
       </c>
       <c r="N9">
-        <v>1.004496627275131</v>
+        <v>1.014522292738353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9614305131882751</v>
+        <v>0.9999067342559812</v>
       </c>
       <c r="D10">
-        <v>0.9870154387045306</v>
+        <v>1.020092664625641</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9671708801829129</v>
+        <v>1.018709725780655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027223849750454</v>
+        <v>1.043885358556936</v>
       </c>
       <c r="J10">
-        <v>0.9912626119239017</v>
+        <v>1.028124053038931</v>
       </c>
       <c r="K10">
-        <v>1.001623158880749</v>
+        <v>1.034108375092759</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9821592992858647</v>
+        <v>1.032749192152565</v>
       </c>
       <c r="N10">
-        <v>0.9926703185322445</v>
+        <v>1.013008274419332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9544416998864907</v>
+        <v>0.996612731825105</v>
       </c>
       <c r="D11">
-        <v>0.9816749686379304</v>
+        <v>1.017636540438677</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9601005310309726</v>
+        <v>1.015729159916147</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024817476297068</v>
+        <v>1.042866355374121</v>
       </c>
       <c r="J11">
-        <v>0.9858407426321577</v>
+        <v>1.02612710721486</v>
       </c>
       <c r="K11">
-        <v>0.9969509449878553</v>
+        <v>1.032233349303425</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9758162698326213</v>
+        <v>1.030360420865372</v>
       </c>
       <c r="N11">
-        <v>0.9872407495642092</v>
+        <v>1.012332832584295</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517797651897314</v>
+        <v>0.9953747378463167</v>
       </c>
       <c r="D12">
-        <v>0.9796427016745251</v>
+        <v>1.016714425457253</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9574092494442132</v>
+        <v>1.014610428814798</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023898800330838</v>
+        <v>1.042481962065658</v>
       </c>
       <c r="J12">
-        <v>0.9837750077255164</v>
+        <v>1.025376145261662</v>
       </c>
       <c r="K12">
-        <v>0.995170591464393</v>
+        <v>1.03152825961239</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9734005857385202</v>
+        <v>1.029462968903794</v>
       </c>
       <c r="N12">
-        <v>0.9851720810770572</v>
+        <v>1.012078818838289</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9523538751979411</v>
+        <v>0.9956409585801045</v>
       </c>
       <c r="D13">
-        <v>0.9800809201753641</v>
+        <v>1.016912673623869</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9579896102586144</v>
+        <v>1.014850935923165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024097027924793</v>
+        <v>1.042564686118967</v>
       </c>
       <c r="J13">
-        <v>0.9842205584197999</v>
+        <v>1.025537652978527</v>
       </c>
       <c r="K13">
-        <v>0.9955545987661376</v>
+        <v>1.031679900432272</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9739215713342053</v>
+        <v>1.029655943096237</v>
       </c>
       <c r="N13">
-        <v>0.9856182645044319</v>
+        <v>1.012133449406293</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9542230559180915</v>
+        <v>0.9965106982853076</v>
       </c>
       <c r="D14">
-        <v>0.9815080046188835</v>
+        <v>1.017560520880139</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.959879441475508</v>
+        <v>1.015636925744783</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024742060824132</v>
+        <v>1.042834702837341</v>
       </c>
       <c r="J14">
-        <v>0.985671080552197</v>
+        <v>1.02606522286437</v>
       </c>
       <c r="K14">
-        <v>0.9968047260950714</v>
+        <v>1.03217524459204</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9756178458474478</v>
+        <v>1.030286447295086</v>
       </c>
       <c r="N14">
-        <v>0.9870708465446341</v>
+        <v>1.012311900316134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9553657388243506</v>
+        <v>0.9970446347331064</v>
       </c>
       <c r="D15">
-        <v>0.9823806729558997</v>
+        <v>1.017958367703044</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.961034975381191</v>
+        <v>1.016119642583512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025136114021465</v>
+        <v>1.043000281447459</v>
       </c>
       <c r="J15">
-        <v>0.9865577486337674</v>
+        <v>1.026389042758005</v>
       </c>
       <c r="K15">
-        <v>0.997568868956076</v>
+        <v>1.032479287940986</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>0.9766548666139554</v>
+        <v>1.030673560969806</v>
       </c>
       <c r="N15">
-        <v>0.9879587737965829</v>
+        <v>1.012421431407365</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9618855105327614</v>
+        <v>1.000123361908434</v>
       </c>
       <c r="D16">
-        <v>0.9873633563390665</v>
+        <v>1.020254321395633</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>0.9676314150001312</v>
+        <v>1.018905940110567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027380213964776</v>
+        <v>1.04395217332333</v>
       </c>
       <c r="J16">
-        <v>0.9916155009086135</v>
+        <v>1.028255316635579</v>
       </c>
       <c r="K16">
-        <v>1.001927219029779</v>
+        <v>1.034231627269995</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>0.9825722861701548</v>
+        <v>1.03290633007107</v>
       </c>
       <c r="N16">
-        <v>0.9930237086597915</v>
+        <v>1.013052671023304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9658657815639069</v>
+        <v>1.002029636397402</v>
       </c>
       <c r="D17">
-        <v>0.9904080682726331</v>
+        <v>1.021677559458609</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9716613464080093</v>
+        <v>1.020633652421798</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028746391488483</v>
+        <v>1.044539024260716</v>
       </c>
       <c r="J17">
-        <v>0.9947019716091535</v>
+        <v>1.029410041487689</v>
       </c>
       <c r="K17">
-        <v>1.00458639532344</v>
+        <v>1.035315886409318</v>
       </c>
       <c r="L17">
         <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9861851949542644</v>
+        <v>1.034289319239868</v>
       </c>
       <c r="N17">
-        <v>0.9961145625027494</v>
+        <v>1.01344321712272</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9681502283949451</v>
+        <v>1.003132789733035</v>
       </c>
       <c r="D18">
-        <v>0.9921564751016659</v>
+        <v>1.022501749165283</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.97397529624065</v>
+        <v>1.021634355049928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029529076539928</v>
+        <v>1.044877704705884</v>
       </c>
       <c r="J18">
-        <v>0.9964729325139351</v>
+        <v>1.030077964255491</v>
       </c>
       <c r="K18">
-        <v>1.006111985570487</v>
+        <v>1.035943057026114</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>0.9882588975881966</v>
+        <v>1.035089815871776</v>
       </c>
       <c r="N18">
-        <v>0.9978880383751475</v>
+        <v>1.013669109658107</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C19">
-        <v>0.9689230592989755</v>
+        <v>1.00350747540362</v>
       </c>
       <c r="D19">
-        <v>0.9927481099414313</v>
+        <v>1.02278177916319</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680089</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>0.9747582755074617</v>
+        <v>1.021974391353292</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029793614370551</v>
+        <v>1.044992578692403</v>
       </c>
       <c r="J19">
-        <v>0.9970719622363754</v>
+        <v>1.030304769811036</v>
       </c>
       <c r="K19">
-        <v>1.0066279830199</v>
+        <v>1.036156025302096</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>0.9889604477005183</v>
+        <v>1.035361730866681</v>
       </c>
       <c r="N19">
-        <v>0.9984879187885037</v>
+        <v>1.013745813928594</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.965442629893195</v>
+        <v>1.001826020942436</v>
       </c>
       <c r="D20">
-        <v>0.9900842804470014</v>
+        <v>1.021525479335688</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9712328105097757</v>
+        <v>1.020449017809979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028601297079672</v>
+        <v>1.044476436721324</v>
       </c>
       <c r="J20">
-        <v>0.994373892476754</v>
+        <v>1.029286733565192</v>
       </c>
       <c r="K20">
-        <v>1.004303755847998</v>
+        <v>1.035200102397354</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9858010872313385</v>
+        <v>1.034141579953759</v>
       </c>
       <c r="N20">
-        <v>0.9957860174603508</v>
+        <v>1.013401513395082</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9536745146868624</v>
+        <v>0.9962549869761559</v>
       </c>
       <c r="D21">
-        <v>0.9810891504496716</v>
+        <v>1.0173700204811</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9593247924205023</v>
+        <v>1.01540579689539</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024552822440998</v>
+        <v>1.042755354154891</v>
       </c>
       <c r="J21">
-        <v>0.9852454172315676</v>
+        <v>1.025910124425738</v>
       </c>
       <c r="K21">
-        <v>0.9964378755740706</v>
+        <v>1.032029619340975</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9751200380861836</v>
+        <v>1.030101063923959</v>
       </c>
       <c r="N21">
-        <v>0.9866445787332649</v>
+        <v>1.012259438402059</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9458891076694229</v>
+        <v>0.9926682121177367</v>
       </c>
       <c r="D22">
-        <v>0.9751492554598356</v>
+        <v>1.014700357585074</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9514569184375495</v>
+        <v>1.012167396719125</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021862099119664</v>
+        <v>1.041639037770014</v>
       </c>
       <c r="J22">
-        <v>0.9792027323709375</v>
+        <v>1.023733612075797</v>
       </c>
       <c r="K22">
-        <v>0.9912296254024281</v>
+        <v>1.029986116255466</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9680555166171823</v>
+        <v>1.027501608213073</v>
       </c>
       <c r="N22">
-        <v>0.9805933125670275</v>
+        <v>1.011523215877545</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9500556904680592</v>
+        <v>0.9945778621344353</v>
       </c>
       <c r="D23">
-        <v>0.9783270116264476</v>
+        <v>1.016121160086365</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9556666611917564</v>
+        <v>1.01389074058522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023303216641282</v>
+        <v>1.042234140771097</v>
       </c>
       <c r="J23">
-        <v>0.9824369232839703</v>
+        <v>1.024892644348453</v>
       </c>
       <c r="K23">
-        <v>0.9940173063081716</v>
+        <v>1.031074301288102</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9718360961294147</v>
+        <v>1.028885393670004</v>
       </c>
       <c r="N23">
-        <v>0.9838320964021238</v>
+        <v>1.011915271729115</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.965633948278949</v>
+        <v>1.001918052969507</v>
       </c>
       <c r="D24">
-        <v>0.990230670903845</v>
+        <v>1.02159421618445</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9714265601436468</v>
+        <v>1.020532467965363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028666902646561</v>
+        <v>1.04450472850585</v>
       </c>
       <c r="J24">
-        <v>0.994522227534694</v>
+        <v>1.029342468409177</v>
       </c>
       <c r="K24">
-        <v>1.004431546802959</v>
+        <v>1.035252436433345</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9859747524803077</v>
+        <v>1.034208356033231</v>
       </c>
       <c r="N24">
-        <v>0.9959345631710873</v>
+        <v>1.013420363395617</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9822692565061449</v>
+        <v>1.010095169633295</v>
       </c>
       <c r="D25">
-        <v>1.002976025649888</v>
+        <v>1.027712964436021</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9882935418521976</v>
+        <v>1.027965312946429</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034340302401041</v>
+        <v>1.046998307190728</v>
       </c>
       <c r="J25">
-        <v>1.007408427795005</v>
+        <v>1.034287502697808</v>
       </c>
       <c r="K25">
-        <v>1.015528317656265</v>
+        <v>1.03989578236529</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.001076345127176</v>
+        <v>1.040144477917472</v>
       </c>
       <c r="N25">
-        <v>1.008839063313836</v>
+        <v>1.015092575443328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016367512756758</v>
+        <v>1.041052102335306</v>
       </c>
       <c r="D2">
-        <v>1.03242142622427</v>
+        <v>1.046591681889417</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.033691884552042</v>
+        <v>1.054335272520966</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048880822607106</v>
+        <v>1.040635084502006</v>
       </c>
       <c r="J2">
-        <v>1.038069457136897</v>
+        <v>1.046135393094343</v>
       </c>
       <c r="K2">
-        <v>1.043446827681347</v>
+        <v>1.049356687752546</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.044700975047575</v>
+        <v>1.057078766356644</v>
       </c>
       <c r="N2">
-        <v>1.0163710356227</v>
+        <v>1.019267250563567</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020788263289178</v>
+        <v>1.041977964249715</v>
       </c>
       <c r="D3">
-        <v>1.035747579243535</v>
+        <v>1.047312737367072</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.037741644424043</v>
+        <v>1.055242521938918</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050189434549234</v>
+        <v>1.040858210446853</v>
       </c>
       <c r="J3">
-        <v>1.040727826550928</v>
+        <v>1.046707242811987</v>
       </c>
       <c r="K3">
-        <v>1.045942615817837</v>
+        <v>1.049889652212097</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.047913356420071</v>
+        <v>1.057798998164449</v>
       </c>
       <c r="N3">
-        <v>1.017269350065018</v>
+        <v>1.019459093332109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023590428189011</v>
+        <v>1.042577365521763</v>
       </c>
       <c r="D4">
-        <v>1.037859119783962</v>
+        <v>1.047779607920522</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.040314714976072</v>
+        <v>1.05583031847075</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05101027421838</v>
+        <v>1.041001572288545</v>
       </c>
       <c r="J4">
-        <v>1.042409350574791</v>
+        <v>1.047076939447882</v>
       </c>
       <c r="K4">
-        <v>1.047521121080073</v>
+        <v>1.050234143704341</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.049949757092013</v>
+        <v>1.058265147480913</v>
       </c>
       <c r="N4">
-        <v>1.017837395881849</v>
+        <v>1.019583063667574</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024754966881814</v>
+        <v>1.042829426245993</v>
       </c>
       <c r="D5">
-        <v>1.038737367763112</v>
+        <v>1.047975950649661</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.041385463928486</v>
+        <v>1.056077605215432</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051349294945081</v>
+        <v>1.041061597955749</v>
       </c>
       <c r="J5">
-        <v>1.04310728973414</v>
+        <v>1.047232280367233</v>
       </c>
       <c r="K5">
-        <v>1.048176250139062</v>
+        <v>1.050378877867628</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.050796060991196</v>
+        <v>1.058461142091969</v>
       </c>
       <c r="N5">
-        <v>1.018073125922434</v>
+        <v>1.019635140982401</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02494972040476</v>
+        <v>1.042871752569149</v>
       </c>
       <c r="D6">
-        <v>1.038884284162229</v>
+        <v>1.048008921544165</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.041564614728344</v>
+        <v>1.05611913609182</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051405866721217</v>
+        <v>1.041071662226423</v>
       </c>
       <c r="J6">
-        <v>1.043223958236279</v>
+        <v>1.047258358099364</v>
       </c>
       <c r="K6">
-        <v>1.048285759239015</v>
+        <v>1.050403174061268</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.050937593258007</v>
+        <v>1.0584940519071</v>
       </c>
       <c r="N6">
-        <v>1.018112528147391</v>
+        <v>1.019643882647249</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023606041206271</v>
+        <v>1.042580733286134</v>
       </c>
       <c r="D7">
-        <v>1.03787089169504</v>
+        <v>1.047782231186936</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.040329064993845</v>
+        <v>1.05583362203426</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051014827855396</v>
+        <v>1.041002375312479</v>
       </c>
       <c r="J7">
-        <v>1.042418711380943</v>
+        <v>1.047079015434579</v>
       </c>
       <c r="K7">
-        <v>1.047529907925005</v>
+        <v>1.050236078004398</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.04996110354919</v>
+        <v>1.058267766272015</v>
       </c>
       <c r="N7">
-        <v>1.017840557691064</v>
+        <v>1.019583759684108</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017873905279053</v>
+        <v>1.041364937599648</v>
       </c>
       <c r="D8">
-        <v>1.033554128634497</v>
+        <v>1.046835303157489</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.035070565706886</v>
+        <v>1.054641726514636</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049328530614393</v>
+        <v>1.040710700924329</v>
       </c>
       <c r="J8">
-        <v>1.038976029766421</v>
+        <v>1.046328719813227</v>
       </c>
       <c r="K8">
-        <v>1.044297988864982</v>
+        <v>1.049536882062334</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.045795548608649</v>
+        <v>1.057322148340337</v>
       </c>
       <c r="N8">
-        <v>1.016677418470585</v>
+        <v>1.019332118618856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007303428110957</v>
+        <v>1.03922494317496</v>
       </c>
       <c r="D9">
-        <v>1.025621446990313</v>
+        <v>1.04516904743304</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.025423578918973</v>
+        <v>1.052547225248244</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046151648723232</v>
+        <v>1.040188978480161</v>
       </c>
       <c r="J9">
-        <v>1.032600893584854</v>
+        <v>1.045004129342662</v>
       </c>
       <c r="K9">
-        <v>1.038312074562866</v>
+        <v>1.048302001873621</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.038117216266289</v>
+        <v>1.055656752164114</v>
       </c>
       <c r="N9">
-        <v>1.014522292738353</v>
+        <v>1.018887449295967</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9999067342559812</v>
+        <v>1.0377999469867</v>
       </c>
       <c r="D10">
-        <v>1.020092664625641</v>
+        <v>1.044059870945031</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.018709725780655</v>
+        <v>1.051154852979872</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043885358556936</v>
+        <v>1.039835980336373</v>
       </c>
       <c r="J10">
-        <v>1.028124053038931</v>
+        <v>1.044119460627808</v>
       </c>
       <c r="K10">
-        <v>1.034108375092759</v>
+        <v>1.04747691757151</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.032749192152565</v>
+        <v>1.054547164756392</v>
       </c>
       <c r="N10">
-        <v>1.013008274419332</v>
+        <v>1.018590187299996</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.996612731825105</v>
+        <v>1.037183315010028</v>
       </c>
       <c r="D11">
-        <v>1.017636540438677</v>
+        <v>1.043579995629245</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.015729159916147</v>
+        <v>1.050552897125374</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042866355374121</v>
+        <v>1.039681905215455</v>
       </c>
       <c r="J11">
-        <v>1.02612710721486</v>
+        <v>1.043736019119099</v>
       </c>
       <c r="K11">
-        <v>1.032233349303425</v>
+        <v>1.047119224478105</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.030360420865372</v>
+        <v>1.054066876027594</v>
       </c>
       <c r="N11">
-        <v>1.012332832584295</v>
+        <v>1.018461280575282</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9953747378463167</v>
+        <v>1.036954331542735</v>
       </c>
       <c r="D12">
-        <v>1.016714425457253</v>
+        <v>1.043401810784212</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.014610428814798</v>
+        <v>1.050329448065804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042481962065658</v>
+        <v>1.03962449135534</v>
       </c>
       <c r="J12">
-        <v>1.025376145261662</v>
+        <v>1.043593536536785</v>
       </c>
       <c r="K12">
-        <v>1.03152825961239</v>
+        <v>1.046986298228947</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.029462968903794</v>
+        <v>1.053888502065185</v>
       </c>
       <c r="N12">
-        <v>1.012078818838289</v>
+        <v>1.01841337063464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9956409585801045</v>
+        <v>1.037003446494301</v>
       </c>
       <c r="D13">
-        <v>1.016912673623869</v>
+        <v>1.043440029202114</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.014850935923165</v>
+        <v>1.050377372103106</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042564686118967</v>
+        <v>1.03963681511924</v>
       </c>
       <c r="J13">
-        <v>1.025537652978527</v>
+        <v>1.043624102024265</v>
       </c>
       <c r="K13">
-        <v>1.031679900432272</v>
+        <v>1.04701481420168</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.029655943096237</v>
+        <v>1.053926762661305</v>
       </c>
       <c r="N13">
-        <v>1.012133449406293</v>
+        <v>1.018423648752006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9965106982853076</v>
+        <v>1.037164385913501</v>
       </c>
       <c r="D14">
-        <v>1.017560520880139</v>
+        <v>1.043565265537693</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.015636925744783</v>
+        <v>1.050534423808091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042834702837341</v>
+        <v>1.039677163108419</v>
       </c>
       <c r="J14">
-        <v>1.02606522286437</v>
+        <v>1.043724242588119</v>
       </c>
       <c r="K14">
-        <v>1.03217524459204</v>
+        <v>1.047108238034967</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.030286447295086</v>
+        <v>1.054052131029928</v>
       </c>
       <c r="N14">
-        <v>1.012311900316134</v>
+        <v>1.018457320898779</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9970446347331064</v>
+        <v>1.037263554125032</v>
       </c>
       <c r="D15">
-        <v>1.017958367703044</v>
+        <v>1.043642436060259</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.016119642583512</v>
+        <v>1.050631207687887</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043000281447459</v>
+        <v>1.039701998535114</v>
       </c>
       <c r="J15">
-        <v>1.026389042758005</v>
+        <v>1.043785935188533</v>
       </c>
       <c r="K15">
-        <v>1.032479287940986</v>
+        <v>1.047165791207016</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.030673560969806</v>
+        <v>1.054129378185396</v>
       </c>
       <c r="N15">
-        <v>1.012421431407365</v>
+        <v>1.018478063687649</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000123361908434</v>
+        <v>1.037840879340126</v>
       </c>
       <c r="D16">
-        <v>1.020254321395633</v>
+        <v>1.044091727342388</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.018905940110567</v>
+        <v>1.051194822948383</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04395217332333</v>
+        <v>1.03984618003496</v>
       </c>
       <c r="J16">
-        <v>1.028255316635579</v>
+        <v>1.044144900570228</v>
       </c>
       <c r="K16">
-        <v>1.034231627269995</v>
+        <v>1.047500647583818</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.03290633007107</v>
+        <v>1.054579043613961</v>
       </c>
       <c r="N16">
-        <v>1.013052671023304</v>
+        <v>1.018598738434828</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002029636397402</v>
+        <v>1.038203128122681</v>
       </c>
       <c r="D17">
-        <v>1.021677559458609</v>
+        <v>1.044373665357263</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.020633652421798</v>
+        <v>1.051548619340032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044539024260716</v>
+        <v>1.039936293761016</v>
       </c>
       <c r="J17">
-        <v>1.029410041487689</v>
+        <v>1.044369970524971</v>
       </c>
       <c r="K17">
-        <v>1.035315886409318</v>
+        <v>1.047710580696985</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.034289319239868</v>
+        <v>1.054861153148925</v>
       </c>
       <c r="N17">
-        <v>1.01344321712272</v>
+        <v>1.018674383808737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003132789733035</v>
+        <v>1.038414460317846</v>
       </c>
       <c r="D18">
-        <v>1.022501749165283</v>
+        <v>1.044538154061409</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.021634355049928</v>
+        <v>1.051755074411516</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044877704705884</v>
+        <v>1.039988737384737</v>
       </c>
       <c r="J18">
-        <v>1.030077964255491</v>
+        <v>1.044501213866149</v>
       </c>
       <c r="K18">
-        <v>1.035943057026114</v>
+        <v>1.04783298995177</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.035089815871776</v>
+        <v>1.055025719189122</v>
       </c>
       <c r="N18">
-        <v>1.013669109658107</v>
+        <v>1.018718488089069</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00350747540362</v>
+        <v>1.038486525656762</v>
       </c>
       <c r="D19">
-        <v>1.02278177916319</v>
+        <v>1.04459424703926</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.021974391353292</v>
+        <v>1.051825485755505</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044992578692403</v>
+        <v>1.040006599243789</v>
       </c>
       <c r="J19">
-        <v>1.030304769811036</v>
+        <v>1.044545958294689</v>
       </c>
       <c r="K19">
-        <v>1.036156025302096</v>
+        <v>1.047874721331906</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.035361730866681</v>
+        <v>1.055081834690246</v>
       </c>
       <c r="N19">
-        <v>1.013745813928594</v>
+        <v>1.018733523379601</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001826020942436</v>
+        <v>1.0381642582566</v>
       </c>
       <c r="D20">
-        <v>1.021525479335688</v>
+        <v>1.044343412030005</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.020449017809979</v>
+        <v>1.051510650848901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044476436721324</v>
+        <v>1.039926637632299</v>
       </c>
       <c r="J20">
-        <v>1.029286733565192</v>
+        <v>1.044345826382272</v>
       </c>
       <c r="K20">
-        <v>1.035200102397354</v>
+        <v>1.047688061113366</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.034141579953759</v>
+        <v>1.054830883769342</v>
       </c>
       <c r="N20">
-        <v>1.013401513395082</v>
+        <v>1.01866626967528</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9962549869761559</v>
+        <v>1.037116991571891</v>
       </c>
       <c r="D21">
-        <v>1.0173700204811</v>
+        <v>1.043528384830434</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.01540579689539</v>
+        <v>1.050488172005451</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042755354154891</v>
+        <v>1.039665286692875</v>
       </c>
       <c r="J21">
-        <v>1.025910124425738</v>
+        <v>1.043694755208449</v>
       </c>
       <c r="K21">
-        <v>1.032029619340975</v>
+        <v>1.047080728779325</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.030101063923959</v>
+        <v>1.054015212425212</v>
       </c>
       <c r="N21">
-        <v>1.012259438402059</v>
+        <v>1.018447406067662</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9926682121177367</v>
+        <v>1.036458887417296</v>
       </c>
       <c r="D22">
-        <v>1.014700357585074</v>
+        <v>1.043016305475683</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.012167396719125</v>
+        <v>1.049846133628521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041639037770014</v>
+        <v>1.039499903549702</v>
       </c>
       <c r="J22">
-        <v>1.023733612075797</v>
+        <v>1.043285081212946</v>
       </c>
       <c r="K22">
-        <v>1.029986116255466</v>
+        <v>1.046698510166574</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.027501608213073</v>
+        <v>1.05350252226006</v>
       </c>
       <c r="N22">
-        <v>1.011523215877545</v>
+        <v>1.018309634595711</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9945778621344353</v>
+        <v>1.036807727029498</v>
       </c>
       <c r="D23">
-        <v>1.016121160086365</v>
+        <v>1.04328773381532</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.01389074058522</v>
+        <v>1.050186410756263</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042234140771097</v>
+        <v>1.039587676733437</v>
       </c>
       <c r="J23">
-        <v>1.024892644348453</v>
+        <v>1.043502287161751</v>
       </c>
       <c r="K23">
-        <v>1.031074301288102</v>
+        <v>1.046901165745482</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.028885393670004</v>
+        <v>1.053774293969589</v>
       </c>
       <c r="N23">
-        <v>1.011915271729115</v>
+        <v>1.018382685215763</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001918052969507</v>
+        <v>1.038181821756701</v>
       </c>
       <c r="D24">
-        <v>1.02159421618445</v>
+        <v>1.044357082085894</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.020532467965363</v>
+        <v>1.051527806892744</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04450472850585</v>
+        <v>1.039931001186444</v>
       </c>
       <c r="J24">
-        <v>1.029342468409177</v>
+        <v>1.044356736192872</v>
       </c>
       <c r="K24">
-        <v>1.035252436433345</v>
+        <v>1.047698236871176</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.034208356033231</v>
+        <v>1.05484456114872</v>
       </c>
       <c r="N24">
-        <v>1.013420363395617</v>
+        <v>1.018669936159764</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010095169633295</v>
+        <v>1.039777893503703</v>
       </c>
       <c r="D25">
-        <v>1.027712964436021</v>
+        <v>1.045599527555775</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.027965312946429</v>
+        <v>1.053088011713633</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046998307190728</v>
+        <v>1.040324772069046</v>
       </c>
       <c r="J25">
-        <v>1.034287502697808</v>
+        <v>1.045346855236557</v>
       </c>
       <c r="K25">
-        <v>1.03989578236529</v>
+        <v>1.04862157486413</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.040144477917472</v>
+        <v>1.056087182796263</v>
       </c>
       <c r="N25">
-        <v>1.015092575443328</v>
+        <v>1.019002552349598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041052102335306</v>
+        <v>1.016367512756759</v>
       </c>
       <c r="D2">
-        <v>1.046591681889417</v>
+        <v>1.032421426224271</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.054335272520966</v>
+        <v>1.033691884552042</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040635084502006</v>
+        <v>1.048880822607106</v>
       </c>
       <c r="J2">
-        <v>1.046135393094343</v>
+        <v>1.038069457136898</v>
       </c>
       <c r="K2">
-        <v>1.049356687752546</v>
+        <v>1.043446827681348</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.057078766356644</v>
+        <v>1.044700975047576</v>
       </c>
       <c r="N2">
-        <v>1.019267250563567</v>
+        <v>1.0163710356227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041977964249715</v>
+        <v>1.020788263289178</v>
       </c>
       <c r="D3">
-        <v>1.047312737367072</v>
+        <v>1.035747579243535</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.055242521938918</v>
+        <v>1.037741644424043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040858210446853</v>
+        <v>1.050189434549234</v>
       </c>
       <c r="J3">
-        <v>1.046707242811987</v>
+        <v>1.040727826550928</v>
       </c>
       <c r="K3">
-        <v>1.049889652212097</v>
+        <v>1.045942615817836</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.057798998164449</v>
+        <v>1.047913356420071</v>
       </c>
       <c r="N3">
-        <v>1.019459093332109</v>
+        <v>1.017269350065018</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042577365521763</v>
+        <v>1.023590428189012</v>
       </c>
       <c r="D4">
-        <v>1.047779607920522</v>
+        <v>1.037859119783962</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.05583031847075</v>
+        <v>1.040314714976072</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041001572288545</v>
+        <v>1.051010274218379</v>
       </c>
       <c r="J4">
-        <v>1.047076939447882</v>
+        <v>1.042409350574791</v>
       </c>
       <c r="K4">
-        <v>1.050234143704341</v>
+        <v>1.047521121080073</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.058265147480913</v>
+        <v>1.049949757092013</v>
       </c>
       <c r="N4">
-        <v>1.019583063667574</v>
+        <v>1.01783739588185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042829426245993</v>
+        <v>1.024754966881814</v>
       </c>
       <c r="D5">
-        <v>1.047975950649661</v>
+        <v>1.038737367763112</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.056077605215432</v>
+        <v>1.041385463928486</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041061597955749</v>
+        <v>1.051349294945081</v>
       </c>
       <c r="J5">
-        <v>1.047232280367233</v>
+        <v>1.043107289734139</v>
       </c>
       <c r="K5">
-        <v>1.050378877867628</v>
+        <v>1.048176250139062</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.058461142091969</v>
+        <v>1.050796060991195</v>
       </c>
       <c r="N5">
-        <v>1.019635140982401</v>
+        <v>1.018073125922434</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042871752569149</v>
+        <v>1.024949720404759</v>
       </c>
       <c r="D6">
-        <v>1.048008921544165</v>
+        <v>1.038884284162228</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.05611913609182</v>
+        <v>1.041564614728343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041071662226423</v>
+        <v>1.051405866721216</v>
       </c>
       <c r="J6">
-        <v>1.047258358099364</v>
+        <v>1.043223958236278</v>
       </c>
       <c r="K6">
-        <v>1.050403174061268</v>
+        <v>1.048285759239014</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.0584940519071</v>
+        <v>1.050937593258006</v>
       </c>
       <c r="N6">
-        <v>1.019643882647249</v>
+        <v>1.01811252814739</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042580733286134</v>
+        <v>1.023606041206271</v>
       </c>
       <c r="D7">
-        <v>1.047782231186936</v>
+        <v>1.03787089169504</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.05583362203426</v>
+        <v>1.040329064993846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041002375312479</v>
+        <v>1.051014827855396</v>
       </c>
       <c r="J7">
-        <v>1.047079015434579</v>
+        <v>1.042418711380943</v>
       </c>
       <c r="K7">
-        <v>1.050236078004398</v>
+        <v>1.047529907925005</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.058267766272015</v>
+        <v>1.04996110354919</v>
       </c>
       <c r="N7">
-        <v>1.019583759684108</v>
+        <v>1.017840557691064</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041364937599648</v>
+        <v>1.017873905279053</v>
       </c>
       <c r="D8">
-        <v>1.046835303157489</v>
+        <v>1.033554128634497</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.054641726514636</v>
+        <v>1.035070565706885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040710700924329</v>
+        <v>1.049328530614393</v>
       </c>
       <c r="J8">
-        <v>1.046328719813227</v>
+        <v>1.038976029766421</v>
       </c>
       <c r="K8">
-        <v>1.049536882062334</v>
+        <v>1.044297988864981</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.057322148340337</v>
+        <v>1.045795548608648</v>
       </c>
       <c r="N8">
-        <v>1.019332118618856</v>
+        <v>1.016677418470585</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03922494317496</v>
+        <v>1.007303428110957</v>
       </c>
       <c r="D9">
-        <v>1.04516904743304</v>
+        <v>1.025621446990312</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.052547225248244</v>
+        <v>1.025423578918973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040188978480161</v>
+        <v>1.046151648723231</v>
       </c>
       <c r="J9">
-        <v>1.045004129342662</v>
+        <v>1.032600893584854</v>
       </c>
       <c r="K9">
-        <v>1.048302001873621</v>
+        <v>1.038312074562866</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.055656752164114</v>
+        <v>1.038117216266289</v>
       </c>
       <c r="N9">
-        <v>1.018887449295967</v>
+        <v>1.014522292738353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0377999469867</v>
+        <v>0.9999067342559825</v>
       </c>
       <c r="D10">
-        <v>1.044059870945031</v>
+        <v>1.020092664625642</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.051154852979872</v>
+        <v>1.018709725780656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039835980336373</v>
+        <v>1.043885358556937</v>
       </c>
       <c r="J10">
-        <v>1.044119460627808</v>
+        <v>1.028124053038932</v>
       </c>
       <c r="K10">
-        <v>1.04747691757151</v>
+        <v>1.03410837509276</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.054547164756392</v>
+        <v>1.032749192152566</v>
       </c>
       <c r="N10">
-        <v>1.018590187299996</v>
+        <v>1.013008274419333</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037183315010028</v>
+        <v>0.996612731825105</v>
       </c>
       <c r="D11">
-        <v>1.043579995629245</v>
+        <v>1.017636540438677</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.050552897125374</v>
+        <v>1.015729159916147</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039681905215455</v>
+        <v>1.042866355374121</v>
       </c>
       <c r="J11">
-        <v>1.043736019119099</v>
+        <v>1.02612710721486</v>
       </c>
       <c r="K11">
-        <v>1.047119224478105</v>
+        <v>1.032233349303425</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.054066876027594</v>
+        <v>1.030360420865372</v>
       </c>
       <c r="N11">
-        <v>1.018461280575282</v>
+        <v>1.012332832584295</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036954331542735</v>
+        <v>0.9953747378463157</v>
       </c>
       <c r="D12">
-        <v>1.043401810784212</v>
+        <v>1.016714425457253</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.050329448065804</v>
+        <v>1.014610428814798</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03962449135534</v>
+        <v>1.042481962065658</v>
       </c>
       <c r="J12">
-        <v>1.043593536536785</v>
+        <v>1.025376145261661</v>
       </c>
       <c r="K12">
-        <v>1.046986298228947</v>
+        <v>1.031528259612389</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.053888502065185</v>
+        <v>1.029462968903794</v>
       </c>
       <c r="N12">
-        <v>1.01841337063464</v>
+        <v>1.012078818838289</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037003446494301</v>
+        <v>0.9956409585801039</v>
       </c>
       <c r="D13">
-        <v>1.043440029202114</v>
+        <v>1.016912673623869</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.050377372103106</v>
+        <v>1.014850935923164</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03963681511924</v>
+        <v>1.042564686118967</v>
       </c>
       <c r="J13">
-        <v>1.043624102024265</v>
+        <v>1.025537652978526</v>
       </c>
       <c r="K13">
-        <v>1.04701481420168</v>
+        <v>1.031679900432272</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.053926762661305</v>
+        <v>1.029655943096236</v>
       </c>
       <c r="N13">
-        <v>1.018423648752006</v>
+        <v>1.012133449406292</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037164385913501</v>
+        <v>0.9965106982853077</v>
       </c>
       <c r="D14">
-        <v>1.043565265537693</v>
+        <v>1.017560520880139</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.050534423808091</v>
+        <v>1.015636925744783</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039677163108419</v>
+        <v>1.042834702837341</v>
       </c>
       <c r="J14">
-        <v>1.043724242588119</v>
+        <v>1.02606522286437</v>
       </c>
       <c r="K14">
-        <v>1.047108238034967</v>
+        <v>1.03217524459204</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.054052131029928</v>
+        <v>1.030286447295086</v>
       </c>
       <c r="N14">
-        <v>1.018457320898779</v>
+        <v>1.012311900316134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037263554125032</v>
+        <v>0.9970446347331079</v>
       </c>
       <c r="D15">
-        <v>1.043642436060259</v>
+        <v>1.017958367703045</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.050631207687887</v>
+        <v>1.016119642583514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039701998535114</v>
+        <v>1.04300028144746</v>
       </c>
       <c r="J15">
-        <v>1.043785935188533</v>
+        <v>1.026389042758006</v>
       </c>
       <c r="K15">
-        <v>1.047165791207016</v>
+        <v>1.032479287940987</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.054129378185396</v>
+        <v>1.030673560969807</v>
       </c>
       <c r="N15">
-        <v>1.018478063687649</v>
+        <v>1.012421431407365</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037840879340126</v>
+        <v>1.000123361908434</v>
       </c>
       <c r="D16">
-        <v>1.044091727342388</v>
+        <v>1.020254321395634</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.051194822948383</v>
+        <v>1.018905940110567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03984618003496</v>
+        <v>1.04395217332333</v>
       </c>
       <c r="J16">
-        <v>1.044144900570228</v>
+        <v>1.028255316635579</v>
       </c>
       <c r="K16">
-        <v>1.047500647583818</v>
+        <v>1.034231627269996</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.054579043613961</v>
+        <v>1.03290633007107</v>
       </c>
       <c r="N16">
-        <v>1.018598738434828</v>
+        <v>1.013052671023304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038203128122681</v>
+        <v>1.002029636397403</v>
       </c>
       <c r="D17">
-        <v>1.044373665357263</v>
+        <v>1.02167755945861</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.051548619340032</v>
+        <v>1.020633652421799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039936293761016</v>
+        <v>1.044539024260716</v>
       </c>
       <c r="J17">
-        <v>1.044369970524971</v>
+        <v>1.02941004148769</v>
       </c>
       <c r="K17">
-        <v>1.047710580696985</v>
+        <v>1.035315886409319</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.054861153148925</v>
+        <v>1.034289319239868</v>
       </c>
       <c r="N17">
-        <v>1.018674383808737</v>
+        <v>1.01344321712272</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038414460317846</v>
+        <v>1.003132789733036</v>
       </c>
       <c r="D18">
-        <v>1.044538154061409</v>
+        <v>1.022501749165284</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.051755074411516</v>
+        <v>1.021634355049929</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039988737384737</v>
+        <v>1.044877704705884</v>
       </c>
       <c r="J18">
-        <v>1.044501213866149</v>
+        <v>1.030077964255492</v>
       </c>
       <c r="K18">
-        <v>1.04783298995177</v>
+        <v>1.035943057026115</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.055025719189122</v>
+        <v>1.035089815871777</v>
       </c>
       <c r="N18">
-        <v>1.018718488089069</v>
+        <v>1.013669109658107</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038486525656762</v>
+        <v>1.003507475403619</v>
       </c>
       <c r="D19">
-        <v>1.04459424703926</v>
+        <v>1.022781779163189</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.051825485755505</v>
+        <v>1.021974391353291</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040006599243789</v>
+        <v>1.044992578692402</v>
       </c>
       <c r="J19">
-        <v>1.044545958294689</v>
+        <v>1.030304769811035</v>
       </c>
       <c r="K19">
-        <v>1.047874721331906</v>
+        <v>1.036156025302095</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.055081834690246</v>
+        <v>1.03536173086668</v>
       </c>
       <c r="N19">
-        <v>1.018733523379601</v>
+        <v>1.013745813928594</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0381642582566</v>
+        <v>1.001826020942436</v>
       </c>
       <c r="D20">
-        <v>1.044343412030005</v>
+        <v>1.021525479335688</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.051510650848901</v>
+        <v>1.020449017809979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039926637632299</v>
+        <v>1.044476436721324</v>
       </c>
       <c r="J20">
-        <v>1.044345826382272</v>
+        <v>1.029286733565193</v>
       </c>
       <c r="K20">
-        <v>1.047688061113366</v>
+        <v>1.035200102397354</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.054830883769342</v>
+        <v>1.034141579953759</v>
       </c>
       <c r="N20">
-        <v>1.01866626967528</v>
+        <v>1.013401513395082</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037116991571891</v>
+        <v>0.996254986976157</v>
       </c>
       <c r="D21">
-        <v>1.043528384830434</v>
+        <v>1.017370020481101</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.050488172005451</v>
+        <v>1.015405796895392</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039665286692875</v>
+        <v>1.042755354154891</v>
       </c>
       <c r="J21">
-        <v>1.043694755208449</v>
+        <v>1.025910124425739</v>
       </c>
       <c r="K21">
-        <v>1.047080728779325</v>
+        <v>1.032029619340976</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.054015212425212</v>
+        <v>1.03010106392396</v>
       </c>
       <c r="N21">
-        <v>1.018447406067662</v>
+        <v>1.012259438402059</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036458887417296</v>
+        <v>0.9926682121177366</v>
       </c>
       <c r="D22">
-        <v>1.043016305475683</v>
+        <v>1.014700357585074</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.049846133628521</v>
+        <v>1.012167396719126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039499903549702</v>
+        <v>1.041639037770014</v>
       </c>
       <c r="J22">
-        <v>1.043285081212946</v>
+        <v>1.023733612075797</v>
       </c>
       <c r="K22">
-        <v>1.046698510166574</v>
+        <v>1.029986116255466</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.05350252226006</v>
+        <v>1.027501608213073</v>
       </c>
       <c r="N22">
-        <v>1.018309634595711</v>
+        <v>1.011523215877545</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036807727029498</v>
+        <v>0.9945778621344361</v>
       </c>
       <c r="D23">
-        <v>1.04328773381532</v>
+        <v>1.016121160086366</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.050186410756263</v>
+        <v>1.013890740585221</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039587676733437</v>
+        <v>1.042234140771097</v>
       </c>
       <c r="J23">
-        <v>1.043502287161751</v>
+        <v>1.024892644348454</v>
       </c>
       <c r="K23">
-        <v>1.046901165745482</v>
+        <v>1.031074301288103</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.053774293969589</v>
+        <v>1.028885393670005</v>
       </c>
       <c r="N23">
-        <v>1.018382685215763</v>
+        <v>1.011915271729116</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038181821756701</v>
+        <v>1.001918052969507</v>
       </c>
       <c r="D24">
-        <v>1.044357082085894</v>
+        <v>1.02159421618445</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.051527806892744</v>
+        <v>1.020532467965363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039931001186444</v>
+        <v>1.04450472850585</v>
       </c>
       <c r="J24">
-        <v>1.044356736192872</v>
+        <v>1.029342468409177</v>
       </c>
       <c r="K24">
-        <v>1.047698236871176</v>
+        <v>1.035252436433345</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.05484456114872</v>
+        <v>1.03420835603323</v>
       </c>
       <c r="N24">
-        <v>1.018669936159764</v>
+        <v>1.013420363395617</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039777893503703</v>
+        <v>1.010095169633296</v>
       </c>
       <c r="D25">
-        <v>1.045599527555775</v>
+        <v>1.027712964436021</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.053088011713633</v>
+        <v>1.02796531294643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040324772069046</v>
+        <v>1.046998307190728</v>
       </c>
       <c r="J25">
-        <v>1.045346855236557</v>
+        <v>1.034287502697809</v>
       </c>
       <c r="K25">
-        <v>1.04862157486413</v>
+        <v>1.039895782365291</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.056087182796263</v>
+        <v>1.040144477917473</v>
       </c>
       <c r="N25">
-        <v>1.019002552349598</v>
+        <v>1.015092575443328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016367512756759</v>
+        <v>1.01467531393518</v>
       </c>
       <c r="D2">
-        <v>1.032421426224271</v>
+        <v>1.030231393149559</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.033691884552042</v>
+        <v>1.031296503364728</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048880822607106</v>
+        <v>1.048599692615471</v>
       </c>
       <c r="J2">
-        <v>1.038069457136898</v>
+        <v>1.03642577674901</v>
       </c>
       <c r="K2">
-        <v>1.043446827681348</v>
+        <v>1.04128502982213</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.044700975047576</v>
+        <v>1.042336389263747</v>
       </c>
       <c r="N2">
-        <v>1.0163710356227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015854849147668</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04207880112609</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040262373748039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020788263289178</v>
+        <v>1.01831554880137</v>
       </c>
       <c r="D3">
-        <v>1.035747579243535</v>
+        <v>1.032613277798261</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.037741644424043</v>
+        <v>1.033981346746025</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050189434549234</v>
+        <v>1.049476585012208</v>
       </c>
       <c r="J3">
-        <v>1.040727826550928</v>
+        <v>1.038319067921717</v>
       </c>
       <c r="K3">
-        <v>1.045942615817836</v>
+        <v>1.042845201771762</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.047913356420071</v>
+        <v>1.044197135951236</v>
       </c>
       <c r="N3">
-        <v>1.017269350065018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016503378268928</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043551452660342</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.0413628868952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023590428189012</v>
+        <v>1.020629097848698</v>
       </c>
       <c r="D4">
-        <v>1.037859119783962</v>
+        <v>1.034131095356115</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.040314714976072</v>
+        <v>1.035695122765406</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051010274218379</v>
+        <v>1.05002618091439</v>
       </c>
       <c r="J4">
-        <v>1.042409350574791</v>
+        <v>1.039519435047625</v>
       </c>
       <c r="K4">
-        <v>1.047521121080073</v>
+        <v>1.043834326392252</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.049949757092013</v>
+        <v>1.045381012151958</v>
       </c>
       <c r="N4">
-        <v>1.01783739588185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016914565037519</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044488406750472</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042063172461587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024754966881814</v>
+        <v>1.021596135619216</v>
       </c>
       <c r="D5">
-        <v>1.038737367763112</v>
+        <v>1.034768768869362</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.041385463928486</v>
+        <v>1.036412122953849</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051349294945081</v>
+        <v>1.050255812715635</v>
       </c>
       <c r="J5">
-        <v>1.043107289734139</v>
+        <v>1.04002236252566</v>
       </c>
       <c r="K5">
-        <v>1.048176250139062</v>
+        <v>1.044250373694027</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.050796060991195</v>
+        <v>1.045875988221061</v>
       </c>
       <c r="N5">
-        <v>1.018073125922434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017087375127132</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044880144865158</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042364498948315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024949720404759</v>
+        <v>1.021763023913395</v>
       </c>
       <c r="D6">
-        <v>1.038884284162228</v>
+        <v>1.034881673005976</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.041564614728343</v>
+        <v>1.036534642031451</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051405866721216</v>
+        <v>1.050297507933306</v>
       </c>
       <c r="J6">
-        <v>1.043223958236278</v>
+        <v>1.040111434973942</v>
       </c>
       <c r="K6">
-        <v>1.048285759239014</v>
+        <v>1.044326039528802</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.050937593258006</v>
+        <v>1.045961246366895</v>
       </c>
       <c r="N6">
-        <v>1.01811252814739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017118625526487</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044947620561299</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042426717157256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023606041206271</v>
+        <v>1.020655746022219</v>
       </c>
       <c r="D7">
-        <v>1.03787089169504</v>
+        <v>1.034156171553815</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.040329064993846</v>
+        <v>1.035711324228648</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051014827855396</v>
+        <v>1.050038372989861</v>
       </c>
       <c r="J7">
-        <v>1.042418711380943</v>
+        <v>1.039539535053282</v>
       </c>
       <c r="K7">
-        <v>1.047529907925005</v>
+        <v>1.043856254912731</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.04996110354919</v>
+        <v>1.045394170926918</v>
       </c>
       <c r="N7">
-        <v>1.017840557691064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016923226947823</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044498820981299</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042098726762017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017873905279053</v>
+        <v>1.015931599812763</v>
       </c>
       <c r="D8">
-        <v>1.033554128634497</v>
+        <v>1.031061897466892</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.035070565706885</v>
+        <v>1.032217115245527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049328530614393</v>
+        <v>1.048911186245811</v>
       </c>
       <c r="J8">
-        <v>1.038976029766421</v>
+        <v>1.037087541911878</v>
       </c>
       <c r="K8">
-        <v>1.044297988864981</v>
+        <v>1.041836932572559</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.045795548608648</v>
+        <v>1.042977676605472</v>
       </c>
       <c r="N8">
-        <v>1.016677418470585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016083835740133</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042586335773957</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040675461111761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007303428110957</v>
+        <v>1.007250418995706</v>
       </c>
       <c r="D9">
-        <v>1.025621446990312</v>
+        <v>1.025397182970939</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.025423578918973</v>
+        <v>1.025862556995148</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046151648723231</v>
+        <v>1.046770662764215</v>
       </c>
       <c r="J9">
-        <v>1.032600893584854</v>
+        <v>1.032549718791104</v>
       </c>
       <c r="K9">
-        <v>1.038312074562866</v>
+        <v>1.038091221939449</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.038117216266289</v>
+        <v>1.038549519039454</v>
       </c>
       <c r="N9">
-        <v>1.014522292738353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014527601900437</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039081747573909</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038023838298079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999067342559825</v>
+        <v>1.001306035226212</v>
       </c>
       <c r="D10">
-        <v>1.020092664625642</v>
+        <v>1.021557665746326</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.018709725780656</v>
+        <v>1.021719819360549</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043885358556937</v>
+        <v>1.045301729108193</v>
       </c>
       <c r="J10">
-        <v>1.028124053038932</v>
+        <v>1.029467931164974</v>
       </c>
       <c r="K10">
-        <v>1.03410837509276</v>
+        <v>1.035548301289625</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.032749192152566</v>
+        <v>1.035707685196273</v>
       </c>
       <c r="N10">
-        <v>1.013008274419333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013480085672664</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036884156729078</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03624262726872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.996612731825105</v>
+        <v>0.9993461518860415</v>
       </c>
       <c r="D11">
-        <v>1.017636540438677</v>
+        <v>1.020404187482995</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.015729159916147</v>
+        <v>1.021680467814478</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042866355374121</v>
+        <v>1.045077255810866</v>
       </c>
       <c r="J11">
-        <v>1.02612710721486</v>
+        <v>1.028746157024781</v>
       </c>
       <c r="K11">
-        <v>1.032233349303425</v>
+        <v>1.034951303139105</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.030360420865372</v>
+        <v>1.036204785561857</v>
       </c>
       <c r="N11">
-        <v>1.012332832584295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013308327597723</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037714148402073</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035853331391403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9953747378463157</v>
+        <v>0.9988281325621032</v>
       </c>
       <c r="D12">
-        <v>1.016714425457253</v>
+        <v>1.020141943782563</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.014610428814798</v>
+        <v>1.022268913564473</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042481962065658</v>
+        <v>1.045131788817092</v>
       </c>
       <c r="J12">
-        <v>1.025376145261661</v>
+        <v>1.028682170860488</v>
       </c>
       <c r="K12">
-        <v>1.031528259612389</v>
+        <v>1.034893168846157</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.029462968903794</v>
+        <v>1.036981560638867</v>
       </c>
       <c r="N12">
-        <v>1.012078818838289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013342995413128</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038654999356862</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035812228660362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9956409585801039</v>
+        <v>0.9994021965372731</v>
       </c>
       <c r="D13">
-        <v>1.016912673623869</v>
+        <v>1.020567018704598</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.014850935923164</v>
+        <v>1.023407519616002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042564686118967</v>
+        <v>1.045420041150263</v>
       </c>
       <c r="J13">
-        <v>1.025537652978526</v>
+        <v>1.029139164370977</v>
       </c>
       <c r="K13">
-        <v>1.031679900432272</v>
+        <v>1.035267769132288</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.029655943096236</v>
+        <v>1.038057024452364</v>
       </c>
       <c r="N13">
-        <v>1.012133449406292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013547773926776</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03978193403097</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036074593359816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9965106982853077</v>
+        <v>1.000293923032927</v>
       </c>
       <c r="D14">
-        <v>1.017560520880139</v>
+        <v>1.021173434929468</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.015636925744783</v>
+        <v>1.024440279631214</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042834702837341</v>
+        <v>1.045724270359325</v>
       </c>
       <c r="J14">
-        <v>1.02606522286437</v>
+        <v>1.029690116162379</v>
       </c>
       <c r="K14">
-        <v>1.03217524459204</v>
+        <v>1.035723261187082</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.030286447295086</v>
+        <v>1.038931936026456</v>
       </c>
       <c r="N14">
-        <v>1.012311900316134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01376644962498</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040646758212374</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036398062889514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970446347331079</v>
+        <v>1.000760557951131</v>
       </c>
       <c r="D15">
-        <v>1.017958367703045</v>
+        <v>1.021482366884176</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.016119642583514</v>
+        <v>1.024845858697635</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04300028144746</v>
+        <v>1.045858176314155</v>
       </c>
       <c r="J15">
-        <v>1.026389042758006</v>
+        <v>1.029950833421889</v>
       </c>
       <c r="K15">
-        <v>1.032479287940987</v>
+        <v>1.035940475480231</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.030673560969807</v>
+        <v>1.039244538776397</v>
       </c>
       <c r="N15">
-        <v>1.012421431407365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013862068199006</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040931351028256</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036557501780121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000123361908434</v>
+        <v>1.003163045886278</v>
       </c>
       <c r="D16">
-        <v>1.020254321395634</v>
+        <v>1.023023703492568</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.018905940110567</v>
+        <v>1.026427755753676</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04395217332333</v>
+        <v>1.046437572673685</v>
       </c>
       <c r="J16">
-        <v>1.028255316635579</v>
+        <v>1.031175342495757</v>
       </c>
       <c r="K16">
-        <v>1.034231627269996</v>
+        <v>1.036953844305291</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.03290633007107</v>
+        <v>1.040300372173367</v>
       </c>
       <c r="N16">
-        <v>1.013052671023304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014269313431506</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041727190519053</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037277148918729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002029636397403</v>
+        <v>1.004545262829192</v>
       </c>
       <c r="D17">
-        <v>1.02167755945861</v>
+        <v>1.023894215305327</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.020633652421799</v>
+        <v>1.02709940983666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044539024260716</v>
+        <v>1.046723476386328</v>
       </c>
       <c r="J17">
-        <v>1.02941004148769</v>
+        <v>1.031829886915841</v>
       </c>
       <c r="K17">
-        <v>1.035315886409319</v>
+        <v>1.037495873255084</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.034289319239868</v>
+        <v>1.040648405700859</v>
       </c>
       <c r="N17">
-        <v>1.01344321712272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014468478844788</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041873338761071</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03766296591561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003132789733036</v>
+        <v>1.005144229567747</v>
       </c>
       <c r="D18">
-        <v>1.022501749165284</v>
+        <v>1.024233685660547</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.021634355049929</v>
+        <v>1.026935123005368</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044877704705884</v>
+        <v>1.046756415203387</v>
       </c>
       <c r="J18">
-        <v>1.030077964255492</v>
+        <v>1.032014292951159</v>
       </c>
       <c r="K18">
-        <v>1.035943057026115</v>
+        <v>1.037646826234156</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.035089815871777</v>
+        <v>1.040304572249102</v>
       </c>
       <c r="N18">
-        <v>1.013669109658107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014490028833261</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041363972984577</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037758080175189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003507475403619</v>
+        <v>1.005027357308621</v>
       </c>
       <c r="D19">
-        <v>1.022781779163189</v>
+        <v>1.024096491515657</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.021974391353291</v>
+        <v>1.02596176712481</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044992578692402</v>
+        <v>1.04655906748207</v>
       </c>
       <c r="J19">
-        <v>1.030304769811035</v>
+        <v>1.031768248274832</v>
       </c>
       <c r="K19">
-        <v>1.036156025302095</v>
+        <v>1.037449473724972</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.03536173086668</v>
+        <v>1.039284700646032</v>
       </c>
       <c r="N19">
-        <v>1.013745813928594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01435388245593</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040232095064916</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037624929653015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001826020942436</v>
+        <v>1.002884571016894</v>
       </c>
       <c r="D20">
-        <v>1.021525479335688</v>
+        <v>1.022594872121049</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.020449017809979</v>
+        <v>1.02281685005934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044476436721324</v>
+        <v>1.04571074918343</v>
       </c>
       <c r="J20">
-        <v>1.029286733565193</v>
+        <v>1.030304748366724</v>
       </c>
       <c r="K20">
-        <v>1.035200102397354</v>
+        <v>1.036251722051634</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.034141579953759</v>
+        <v>1.036470016750326</v>
       </c>
       <c r="N20">
-        <v>1.013401513395082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01377016062054</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037476893588068</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036781992833111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.996254986976157</v>
+        <v>0.9982875290093425</v>
       </c>
       <c r="D21">
-        <v>1.017370020481101</v>
+        <v>1.019611218624587</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.015405796895392</v>
+        <v>1.019371539573382</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042755354154891</v>
+        <v>1.044507629476854</v>
       </c>
       <c r="J21">
-        <v>1.025910124425739</v>
+        <v>1.027857022823777</v>
       </c>
       <c r="K21">
-        <v>1.032029619340976</v>
+        <v>1.034230337924133</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.03010106392396</v>
+        <v>1.033994976805165</v>
       </c>
       <c r="N21">
-        <v>1.012259438402059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012924171339181</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035477116558007</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03535602671452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9926682121177366</v>
+        <v>0.9953661688812635</v>
       </c>
       <c r="D22">
-        <v>1.014700357585074</v>
+        <v>1.017719834458589</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.012167396719126</v>
+        <v>1.017279106850879</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041639037770014</v>
+        <v>1.043746029353434</v>
       </c>
       <c r="J22">
-        <v>1.023733612075797</v>
+        <v>1.026311101362426</v>
       </c>
       <c r="K22">
-        <v>1.029986116255466</v>
+        <v>1.032948245646146</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.027501608213073</v>
+        <v>1.032515860829929</v>
       </c>
       <c r="N22">
-        <v>1.011523215877545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012391881474313</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034306486233092</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03443603679841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9945778621344361</v>
+        <v>0.9969072932553059</v>
       </c>
       <c r="D23">
-        <v>1.016121160086366</v>
+        <v>1.018710246259866</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.013890740585221</v>
+        <v>1.018385006368007</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042234140771097</v>
+        <v>1.044143280516696</v>
       </c>
       <c r="J23">
-        <v>1.024892644348454</v>
+        <v>1.027121190126568</v>
       </c>
       <c r="K23">
-        <v>1.031074301288103</v>
+        <v>1.03361549727264</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.028885393670005</v>
+        <v>1.033296255896216</v>
       </c>
       <c r="N23">
-        <v>1.011915271729116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012668850396907</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034924121701162</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034898181737305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001918052969507</v>
+        <v>1.002873842922492</v>
       </c>
       <c r="D24">
-        <v>1.02159421618445</v>
+        <v>1.022567539684606</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.020532467965363</v>
+        <v>1.022682792556084</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04450472850585</v>
+        <v>1.045674168445517</v>
       </c>
       <c r="J24">
-        <v>1.029342468409177</v>
+        <v>1.030261713661355</v>
       </c>
       <c r="K24">
-        <v>1.035252436433345</v>
+        <v>1.036209605026481</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.03420835603323</v>
+        <v>1.036322947589548</v>
       </c>
       <c r="N24">
-        <v>1.013420363395617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013745952770893</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037319559912432</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036724842468234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010095169633296</v>
+        <v>1.009558503398731</v>
       </c>
       <c r="D25">
-        <v>1.027712964436021</v>
+        <v>1.026910880287071</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.02796531294643</v>
+        <v>1.027539188766896</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046998307190728</v>
+        <v>1.047355721425753</v>
       </c>
       <c r="J25">
-        <v>1.034287502697809</v>
+        <v>1.033768412830724</v>
       </c>
       <c r="K25">
-        <v>1.039895782365291</v>
+        <v>1.039105324178036</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.040144477917473</v>
+        <v>1.039724523568396</v>
       </c>
       <c r="N25">
-        <v>1.015092575443328</v>
+        <v>1.014948602708715</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040011686108983</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038769400380636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01467531393518</v>
+        <v>1.013864828639364</v>
       </c>
       <c r="D2">
-        <v>1.030231393149559</v>
+        <v>1.028963414894339</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.031296503364728</v>
+        <v>1.030908773540453</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048599692615471</v>
+        <v>1.048043389423788</v>
       </c>
       <c r="J2">
-        <v>1.03642577674901</v>
+        <v>1.035638608133125</v>
       </c>
       <c r="K2">
-        <v>1.04128502982213</v>
+        <v>1.040033467861052</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.042336389263747</v>
+        <v>1.041953660989982</v>
       </c>
       <c r="N2">
-        <v>1.015854849147668</v>
+        <v>1.016526341190682</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04207880112609</v>
+        <v>1.041775897956847</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040262373748039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039386170570604</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022667219455818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01831554880137</v>
+        <v>1.017322608999545</v>
       </c>
       <c r="D3">
-        <v>1.032613277798261</v>
+        <v>1.031136402365871</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.033981346746025</v>
+        <v>1.033508932595607</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049476585012208</v>
+        <v>1.048810624240554</v>
       </c>
       <c r="J3">
-        <v>1.038319067921717</v>
+        <v>1.037351928685445</v>
       </c>
       <c r="K3">
-        <v>1.042845201771762</v>
+        <v>1.041385803891504</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.044197135951236</v>
+        <v>1.043730287392937</v>
       </c>
       <c r="N3">
-        <v>1.016503378268928</v>
+        <v>1.016990621050964</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043551452660342</v>
+        <v>1.043181974789548</v>
       </c>
       <c r="Q3">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R3">
-        <v>1.0413628868952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04033945027396</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022932489484755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020629097848698</v>
+        <v>1.01952150166546</v>
       </c>
       <c r="D4">
-        <v>1.034131095356115</v>
+        <v>1.032522317273733</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.035695122765406</v>
+        <v>1.035169531562065</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05002618091439</v>
+        <v>1.049290962383931</v>
       </c>
       <c r="J4">
-        <v>1.039519435047625</v>
+        <v>1.038438692752084</v>
       </c>
       <c r="K4">
-        <v>1.043834326392252</v>
+        <v>1.042243453589845</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.045381012151958</v>
+        <v>1.044861241419108</v>
       </c>
       <c r="N4">
-        <v>1.016914565037519</v>
+        <v>1.017285209728029</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044488406750472</v>
+        <v>1.044077045209044</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042063172461587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040946855276259</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023098356042427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021596135619216</v>
+        <v>1.02044079096476</v>
       </c>
       <c r="D5">
-        <v>1.034768768869362</v>
+        <v>1.033104994797435</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.036412122953849</v>
+        <v>1.035864394768736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050255812715635</v>
+        <v>1.049491675190404</v>
       </c>
       <c r="J5">
-        <v>1.04002236252566</v>
+        <v>1.03889420146958</v>
       </c>
       <c r="K5">
-        <v>1.044250373694027</v>
+        <v>1.0426046301374</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.045875988221061</v>
+        <v>1.045334164944943</v>
       </c>
       <c r="N5">
-        <v>1.017087375127132</v>
+        <v>1.017409097688785</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044880144865158</v>
+        <v>1.044451330529867</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042364498948315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041210096984611</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023168227584962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021763023913395</v>
+        <v>1.020599307641659</v>
       </c>
       <c r="D6">
-        <v>1.034881673005976</v>
+        <v>1.033208341886296</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.036534642031451</v>
+        <v>1.035983031465703</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050297507933306</v>
+        <v>1.049528297072409</v>
       </c>
       <c r="J6">
-        <v>1.040111434973942</v>
+        <v>1.038974959881202</v>
       </c>
       <c r="K6">
-        <v>1.044326039528802</v>
+        <v>1.042670760378474</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.045961246366895</v>
+        <v>1.045415555480684</v>
       </c>
       <c r="N6">
-        <v>1.017118625526487</v>
+        <v>1.017431538042713</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044947620561299</v>
+        <v>1.044515745328404</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042426717157256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041266444075237</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023181711449432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020655746022219</v>
+        <v>1.019556318146491</v>
       </c>
       <c r="D7">
-        <v>1.034156171553815</v>
+        <v>1.032552903550715</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.035711324228648</v>
+        <v>1.035189463780916</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050038372989861</v>
+        <v>1.049307043911285</v>
       </c>
       <c r="J7">
-        <v>1.039539535053282</v>
+        <v>1.038466751161954</v>
       </c>
       <c r="K7">
-        <v>1.043856254912731</v>
+        <v>1.042270823737254</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.045394170926918</v>
+        <v>1.044878087462715</v>
       </c>
       <c r="N7">
-        <v>1.016923226947823</v>
+        <v>1.017320303796367</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044498820981299</v>
+        <v>1.044090377657208</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042098726762017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040988261382048</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023106506800121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015931599812763</v>
+        <v>1.015087851950675</v>
       </c>
       <c r="D8">
-        <v>1.031061897466892</v>
+        <v>1.029743781660529</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.032217115245527</v>
+        <v>1.031813823296306</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048911186245811</v>
+        <v>1.048331904891084</v>
       </c>
       <c r="J8">
-        <v>1.037087541911878</v>
+        <v>1.036267260292858</v>
       </c>
       <c r="K8">
-        <v>1.041836932572559</v>
+        <v>1.040535380943141</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.042977676605472</v>
+        <v>1.042579432918128</v>
       </c>
       <c r="N8">
-        <v>1.016083835740133</v>
+        <v>1.016778041571489</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042586335773957</v>
+        <v>1.042271153437306</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040675461111761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039766182887635</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022771362938596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007250418995706</v>
+        <v>1.006855148697637</v>
       </c>
       <c r="D9">
-        <v>1.025397182970939</v>
+        <v>1.024586356009983</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.025862556995148</v>
+        <v>1.025667737841871</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046770662764215</v>
+        <v>1.046458270776124</v>
       </c>
       <c r="J9">
-        <v>1.032549718791104</v>
+        <v>1.032168134888133</v>
       </c>
       <c r="K9">
-        <v>1.038091221939449</v>
+        <v>1.03729274477424</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.038549519039454</v>
+        <v>1.038357661497119</v>
       </c>
       <c r="N9">
-        <v>1.014527601900437</v>
+        <v>1.015676162024638</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039081747573909</v>
+        <v>1.038929904877207</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038023838298079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037469986093842</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022120335522076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001306035226212</v>
+        <v>1.001266074672675</v>
       </c>
       <c r="D10">
-        <v>1.021557665746326</v>
+        <v>1.021127841642046</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.021719819360549</v>
+        <v>1.021690311395897</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045301729108193</v>
+        <v>1.045193931436876</v>
       </c>
       <c r="J10">
-        <v>1.029467931164974</v>
+        <v>1.029429550308828</v>
       </c>
       <c r="K10">
-        <v>1.035548301289625</v>
+        <v>1.035125824408395</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.035707685196273</v>
+        <v>1.035678681165663</v>
       </c>
       <c r="N10">
-        <v>1.013480085672664</v>
+        <v>1.015059331104547</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036884156729078</v>
+        <v>1.036861203303826</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03624262726872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035956310468954</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021684183523724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9993461518860415</v>
+        <v>0.9994578790479276</v>
       </c>
       <c r="D11">
-        <v>1.020404187482995</v>
+        <v>1.020115876068211</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.021680467814478</v>
+        <v>1.02172044331699</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045077255810866</v>
+        <v>1.045046196973407</v>
       </c>
       <c r="J11">
-        <v>1.028746157024781</v>
+        <v>1.028853228289442</v>
       </c>
       <c r="K11">
-        <v>1.034951303139105</v>
+        <v>1.03466815202555</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.036204785561857</v>
+        <v>1.036244048185213</v>
       </c>
       <c r="N11">
-        <v>1.013308327597723</v>
+        <v>1.015185377423504</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037714148402073</v>
+        <v>1.03774520466772</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035853331391403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035668736439812</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021647443383498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9988281325621032</v>
+        <v>0.9989752843207925</v>
       </c>
       <c r="D12">
-        <v>1.020141943782563</v>
+        <v>1.019882440801279</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.022268913564473</v>
+        <v>1.022324217456423</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045131788817092</v>
+        <v>1.045113947059722</v>
       </c>
       <c r="J12">
-        <v>1.028682170860488</v>
+        <v>1.028823075358298</v>
       </c>
       <c r="K12">
-        <v>1.034893168846157</v>
+        <v>1.034638386940786</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.036981560638867</v>
+        <v>1.037035864238772</v>
       </c>
       <c r="N12">
-        <v>1.013342995413128</v>
+        <v>1.015316875547386</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038654999356862</v>
+        <v>1.038697938310218</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035812228660362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035647692040258</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021678671881508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9994021965372731</v>
+        <v>0.9994815139821912</v>
       </c>
       <c r="D13">
-        <v>1.020567018704598</v>
+        <v>1.020239706133834</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.023407519616002</v>
+        <v>1.023430499654558</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045420041150263</v>
+        <v>1.045360106449621</v>
       </c>
       <c r="J13">
-        <v>1.029139164370977</v>
+        <v>1.029215131915377</v>
       </c>
       <c r="K13">
-        <v>1.035267769132288</v>
+        <v>1.034946385467771</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.038057024452364</v>
+        <v>1.038079591414398</v>
       </c>
       <c r="N13">
-        <v>1.013547773926776</v>
+        <v>1.015430809981315</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03978193403097</v>
+        <v>1.039799773706199</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036074593359816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035862720470162</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02176913880812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000293923032927</v>
+        <v>1.000280392216213</v>
       </c>
       <c r="D14">
-        <v>1.021173434929468</v>
+        <v>1.020756409186666</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.024440279631214</v>
+        <v>1.024419948657654</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045724270359325</v>
+        <v>1.045611063360552</v>
       </c>
       <c r="J14">
-        <v>1.029690116162379</v>
+        <v>1.029677148587707</v>
       </c>
       <c r="K14">
-        <v>1.035723261187082</v>
+        <v>1.035313695864705</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.038931936026456</v>
+        <v>1.038911965580394</v>
       </c>
       <c r="N14">
-        <v>1.01376644962498</v>
+        <v>1.015503146784982</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040646758212374</v>
+        <v>1.040630973265505</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036398062889514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036123976133696</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021859214374098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,105 +1245,123 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000760557951131</v>
+        <v>1.000702044120151</v>
       </c>
       <c r="D15">
-        <v>1.021482366884176</v>
+        <v>1.021022333975015</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.024845858697635</v>
+        <v>1.024804757945359</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045858176314155</v>
+        <v>1.04572010292897</v>
       </c>
       <c r="J15">
-        <v>1.029950833421889</v>
+        <v>1.029894734077056</v>
       </c>
       <c r="K15">
-        <v>1.035940475480231</v>
+        <v>1.035488610251776</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.039244538776397</v>
+        <v>1.039204161169118</v>
       </c>
       <c r="N15">
-        <v>1.013862068199006</v>
+        <v>1.015524069911168</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040931351028256</v>
+        <v>1.040899436785987</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036557501780121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036254076359103</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021897832670927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.003163045886278</v>
+        <v>1.00290037934548</v>
       </c>
       <c r="D16">
-        <v>1.023023703492568</v>
+        <v>1.022367288854235</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.026427755753676</v>
+        <v>1.026293193272782</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046437572673685</v>
+        <v>1.046189846834263</v>
       </c>
       <c r="J16">
-        <v>1.031175342495757</v>
+        <v>1.030922975417943</v>
       </c>
       <c r="K16">
-        <v>1.036953844305291</v>
+        <v>1.036308579166177</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.040300372173367</v>
+        <v>1.040168074294233</v>
       </c>
       <c r="N16">
-        <v>1.014269313431506</v>
+        <v>1.015586381210382</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041727190519053</v>
+        <v>1.04162262001841</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037277148918729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036837282453984</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022056738706516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004545262829192</v>
+        <v>1.004185566890959</v>
       </c>
       <c r="D17">
-        <v>1.023894215305327</v>
+        <v>1.023141613083411</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.02709940983666</v>
+        <v>1.026920576672357</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046723476386328</v>
+        <v>1.046424114149005</v>
       </c>
       <c r="J17">
-        <v>1.031829886915841</v>
+        <v>1.03148384474154</v>
       </c>
       <c r="K17">
-        <v>1.037495873255084</v>
+        <v>1.036755698018734</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.040648405700859</v>
+        <v>1.040472499674886</v>
       </c>
       <c r="N17">
-        <v>1.014468478844788</v>
+        <v>1.015626861637988</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041873338761071</v>
+        <v>1.041734285824517</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03766296591561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037156242427669</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022133623282252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005144229567747</v>
+        <v>1.004759315569544</v>
       </c>
       <c r="D18">
-        <v>1.024233685660547</v>
+        <v>1.02345508178984</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.026935123005368</v>
+        <v>1.026744940205442</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046756415203387</v>
+        <v>1.046445621186087</v>
       </c>
       <c r="J18">
-        <v>1.032014292951159</v>
+        <v>1.031643719662252</v>
       </c>
       <c r="K18">
-        <v>1.037646826234156</v>
+        <v>1.036880870008339</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.040304572249102</v>
+        <v>1.0401174556902</v>
       </c>
       <c r="N18">
-        <v>1.014490028833261</v>
+        <v>1.015600900260723</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041363972984577</v>
+        <v>1.041216027407317</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037758080175189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037231992734326</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022134162621583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005027357308621</v>
+        <v>1.004674108964619</v>
       </c>
       <c r="D19">
-        <v>1.024096491515657</v>
+        <v>1.023349945088815</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.02596176712481</v>
+        <v>1.02578636861784</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04655906748207</v>
+        <v>1.046269382931406</v>
       </c>
       <c r="J19">
-        <v>1.031768248274832</v>
+        <v>1.031428087714193</v>
       </c>
       <c r="K19">
-        <v>1.037449473724972</v>
+        <v>1.0367149932044</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.039284700646032</v>
+        <v>1.039112121752533</v>
       </c>
       <c r="N19">
-        <v>1.01435388245593</v>
+        <v>1.015495956744242</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040232095064916</v>
+        <v>1.040095599285823</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037624929653015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037121722502966</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022067290276818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002884571016894</v>
+        <v>1.00272021630849</v>
       </c>
       <c r="D20">
-        <v>1.022594872121049</v>
+        <v>1.0220417303577</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.02281685005934</v>
+        <v>1.022729404421972</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04571074918343</v>
+        <v>1.045533258169687</v>
       </c>
       <c r="J20">
-        <v>1.030304748366724</v>
+        <v>1.03014667940872</v>
       </c>
       <c r="K20">
-        <v>1.036251722051634</v>
+        <v>1.035707767432917</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.036470016750326</v>
+        <v>1.03638402183679</v>
       </c>
       <c r="N20">
-        <v>1.01377016062054</v>
+        <v>1.01515589861626</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037476893588068</v>
+        <v>1.037408837473832</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036781992833111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036413886504932</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021804761075426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9982875290093425</v>
+        <v>0.9985452238218279</v>
       </c>
       <c r="D21">
-        <v>1.019611218624587</v>
+        <v>1.019463846795271</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.019371539573382</v>
+        <v>1.019481195883074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044507629476854</v>
+        <v>1.044564164050889</v>
       </c>
       <c r="J21">
-        <v>1.027857022823777</v>
+        <v>1.028103894801529</v>
       </c>
       <c r="K21">
-        <v>1.034230337924133</v>
+        <v>1.034085620756044</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.033994976805165</v>
+        <v>1.034102657276746</v>
       </c>
       <c r="N21">
-        <v>1.012924171339181</v>
+        <v>1.015023205225204</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035477116558007</v>
+        <v>1.035562339025716</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03535602671452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035270524238201</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021476395248245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9953661688812635</v>
+        <v>0.9958919474665142</v>
       </c>
       <c r="D22">
-        <v>1.017719834458589</v>
+        <v>1.017830199690401</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.017279106850879</v>
+        <v>1.017514565861726</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043746029353434</v>
+        <v>1.043951370309257</v>
       </c>
       <c r="J22">
-        <v>1.026311101362426</v>
+        <v>1.026813511955349</v>
       </c>
       <c r="K22">
-        <v>1.032948245646146</v>
+        <v>1.033056523188155</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.032515860829929</v>
+        <v>1.032746861523676</v>
       </c>
       <c r="N22">
-        <v>1.012391881474313</v>
+        <v>1.014935798890928</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034306486233092</v>
+        <v>1.034489309359155</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03443603679841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034528114501006</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021267321845682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9969072932553059</v>
+        <v>0.9972751664884928</v>
       </c>
       <c r="D23">
-        <v>1.018710246259866</v>
+        <v>1.018672193862935</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.018385006368007</v>
+        <v>1.01854627649359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044143280516696</v>
+        <v>1.04426170280173</v>
       </c>
       <c r="J23">
-        <v>1.027121190126568</v>
+        <v>1.027473192629221</v>
       </c>
       <c r="K23">
-        <v>1.03361549727264</v>
+        <v>1.033578146431802</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.033296255896216</v>
+        <v>1.033454551035272</v>
       </c>
       <c r="N23">
-        <v>1.012668850396907</v>
+        <v>1.014933717853891</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034924121701162</v>
+        <v>1.0350494026583</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034898181737305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034886352372259</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021370146064763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002873842922492</v>
+        <v>1.00271355111615</v>
       </c>
       <c r="D24">
-        <v>1.022567539684606</v>
+        <v>1.022018435491087</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.022682792556084</v>
+        <v>1.022597299933491</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045674168445517</v>
+        <v>1.045499552923877</v>
       </c>
       <c r="J24">
-        <v>1.030261713661355</v>
+        <v>1.030107543765833</v>
       </c>
       <c r="K24">
-        <v>1.036209605026481</v>
+        <v>1.035669609814914</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.036322947589548</v>
+        <v>1.036238871948199</v>
       </c>
       <c r="N24">
-        <v>1.013745952770893</v>
+        <v>1.015134807046844</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037319559912432</v>
+        <v>1.037253019380994</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036724842468234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036356862784813</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021789430786151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009558503398731</v>
+        <v>1.009029587030805</v>
       </c>
       <c r="D25">
-        <v>1.026910880287071</v>
+        <v>1.025954786023422</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.027539188766896</v>
+        <v>1.02728221455485</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047355721425753</v>
+        <v>1.046965256529363</v>
       </c>
       <c r="J25">
-        <v>1.033768412830724</v>
+        <v>1.033256844424806</v>
       </c>
       <c r="K25">
-        <v>1.039105324178036</v>
+        <v>1.038163118322301</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.039724523568396</v>
+        <v>1.039471273209388</v>
       </c>
       <c r="N25">
-        <v>1.014948602708715</v>
+        <v>1.015940080318535</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040011686108983</v>
+        <v>1.039811255265944</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038769400380636</v>
+        <v>1.038116729714514</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022299126244947</v>
       </c>
     </row>
   </sheetData>
